--- a/manual/output_1222_chunk_1.xlsx
+++ b/manual/output_1222_chunk_1.xlsx
@@ -589,6 +589,9 @@
     <t>حفاضات مولفيكس جونيور مقاس 5 - 70 حفاضة</t>
   </si>
   <si>
+    <t>كاتشب هاينز اسكويزى دوى باك - 125 جم</t>
+  </si>
+  <si>
     <t>رويال أعشاب نعناع - 12 فتلة</t>
   </si>
   <si>
@@ -601,9 +604,6 @@
     <t>بيبسى مينى تربو - 250 مل</t>
   </si>
   <si>
-    <t>كاتشب هاينز اسكويزى دوى باك - 125 جم</t>
-  </si>
-  <si>
     <t>حفاضات بى بم جامبو بانتس مقاس 6 - 46 حفاضة</t>
   </si>
   <si>
@@ -889,6 +889,9 @@
     <t>تونة دولفين قطعة واحدة بارد - 200 جم</t>
   </si>
   <si>
+    <t>مايونيز هاينز دوى باك - 125 جم</t>
+  </si>
+  <si>
     <t>عصير بيتى مانجو - 1 لتر</t>
   </si>
   <si>
@@ -919,9 +922,6 @@
     <t>ليندو برو برائحه اللافندر  - 2 كجم</t>
   </si>
   <si>
-    <t>مايونيز هاينز دوى باك - 125 جم</t>
-  </si>
-  <si>
     <t>مكرونة حواء لسان عصفور - 400 جم</t>
   </si>
   <si>
@@ -1009,6 +1009,12 @@
     <t>حفاضات بى بم بانتس مقاس 5 - 72 حفاضة</t>
   </si>
   <si>
+    <t>صلصة هارفست طماطم صفيح - 800 جم</t>
+  </si>
+  <si>
+    <t>ارز حبوبة رفيع - 1 كجم</t>
+  </si>
+  <si>
     <t>شاى العروسة - 100 جم</t>
   </si>
   <si>
@@ -1054,9 +1060,6 @@
     <t>كنور فيجيتار حار عرض خاص - 35 جم</t>
   </si>
   <si>
-    <t>ارز حبوبة رفيع - 1 كجم</t>
-  </si>
-  <si>
     <t>بن عبد المعبود محوج فاتح - 50 جم</t>
   </si>
   <si>
@@ -1165,9 +1168,6 @@
     <t>زيت كريستال عباد الشمس 6 زجاجة - 700 مل</t>
   </si>
   <si>
-    <t>صلصة هارفست طماطم صفيح - 800 جم</t>
-  </si>
-  <si>
     <t>هيركود جيل سبوت  - 10 مل</t>
   </si>
   <si>
@@ -1273,6 +1273,9 @@
     <t>زيت كريستال ذرة - 3.5 لتر</t>
   </si>
   <si>
+    <t>ارز حبوبة رفيع - 5 كجم</t>
+  </si>
+  <si>
     <t>سمن روابى قشطة - 1.5 كجم</t>
   </si>
   <si>
@@ -1375,9 +1378,6 @@
     <t>زيت كريستال ذرة 6 زجاجة - 700 مل</t>
   </si>
   <si>
-    <t>ارز حبوبة رفيع - 5 كجم</t>
-  </si>
-  <si>
     <t>أطعم مرقة دجاج شريط - 8 جم</t>
   </si>
   <si>
@@ -1441,6 +1441,9 @@
     <t>مسحوق باهى اوتوماتيك لافندر 2.5 كم + 300 جم - 2.8 كجم</t>
   </si>
   <si>
+    <t>صلصة هارفست صفيح - 375 جم</t>
+  </si>
+  <si>
     <t>زيت شعر فيانسيه 7*1 مغذى - 175 مل</t>
   </si>
   <si>
@@ -1772,9 +1775,6 @@
   </si>
   <si>
     <t>شورتى بسكويت - 10 جنية</t>
-  </si>
-  <si>
-    <t>صلصة هارفست صفيح - 375 جم</t>
   </si>
   <si>
     <t>فرسكا ويفر بار مغطى بالشوكولاتة البيضاء- 3 جنية</t>
@@ -8644,7 +8644,7 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>313</v>
+        <v>315.75</v>
       </c>
       <c r="E7" t="s">
         <v>2715</v>
@@ -8899,7 +8899,7 @@
         <v>2</v>
       </c>
       <c r="D22">
-        <v>193</v>
+        <v>193.75</v>
       </c>
       <c r="E22" t="s">
         <v>2715</v>
@@ -9103,7 +9103,7 @@
         <v>2</v>
       </c>
       <c r="D34">
-        <v>313</v>
+        <v>315.75</v>
       </c>
       <c r="E34" t="s">
         <v>2715</v>
@@ -9460,7 +9460,7 @@
         <v>2</v>
       </c>
       <c r="D55">
-        <v>187.25</v>
+        <v>187.5</v>
       </c>
       <c r="E55" t="s">
         <v>2715</v>
@@ -9562,7 +9562,7 @@
         <v>2</v>
       </c>
       <c r="D61">
-        <v>263.75</v>
+        <v>263</v>
       </c>
       <c r="E61" t="s">
         <v>2715</v>
@@ -9596,7 +9596,7 @@
         <v>2</v>
       </c>
       <c r="D63">
-        <v>262</v>
+        <v>261.75</v>
       </c>
       <c r="E63" t="s">
         <v>2715</v>
@@ -9766,7 +9766,7 @@
         <v>2</v>
       </c>
       <c r="D73">
-        <v>262</v>
+        <v>261.75</v>
       </c>
       <c r="E73" t="s">
         <v>2715</v>
@@ -9834,7 +9834,7 @@
         <v>2</v>
       </c>
       <c r="D77">
-        <v>263.75</v>
+        <v>263</v>
       </c>
       <c r="E77" t="s">
         <v>2715</v>
@@ -9868,7 +9868,7 @@
         <v>2</v>
       </c>
       <c r="D79">
-        <v>125.5</v>
+        <v>125.25</v>
       </c>
       <c r="E79" t="s">
         <v>2715</v>
@@ -10429,7 +10429,7 @@
         <v>2</v>
       </c>
       <c r="D112">
-        <v>125.5</v>
+        <v>125.25</v>
       </c>
       <c r="E112" t="s">
         <v>2715</v>
@@ -10514,7 +10514,7 @@
         <v>2</v>
       </c>
       <c r="D117">
-        <v>262</v>
+        <v>261.75</v>
       </c>
       <c r="E117" t="s">
         <v>2715</v>
@@ -11007,7 +11007,7 @@
         <v>1</v>
       </c>
       <c r="D146">
-        <v>231.5</v>
+        <v>231.75</v>
       </c>
       <c r="E146" t="s">
         <v>2715</v>
@@ -11058,7 +11058,7 @@
         <v>2</v>
       </c>
       <c r="D149">
-        <v>125.5</v>
+        <v>125.25</v>
       </c>
       <c r="E149" t="s">
         <v>2715</v>
@@ -11126,7 +11126,7 @@
         <v>2</v>
       </c>
       <c r="D153">
-        <v>99.5</v>
+        <v>99.75</v>
       </c>
       <c r="E153" t="s">
         <v>2715</v>
@@ -11398,7 +11398,7 @@
         <v>1</v>
       </c>
       <c r="D169">
-        <v>762.75</v>
+        <v>764</v>
       </c>
       <c r="E169" t="s">
         <v>2715</v>
@@ -11551,7 +11551,7 @@
         <v>2</v>
       </c>
       <c r="D178">
-        <v>125.5</v>
+        <v>125.25</v>
       </c>
       <c r="E178" t="s">
         <v>2715</v>
@@ -11942,7 +11942,7 @@
         <v>2</v>
       </c>
       <c r="D201">
-        <v>307.5</v>
+        <v>307.25</v>
       </c>
       <c r="E201" t="s">
         <v>2715</v>
@@ -11976,7 +11976,7 @@
         <v>1</v>
       </c>
       <c r="D203">
-        <v>356</v>
+        <v>356.5</v>
       </c>
       <c r="E203" t="s">
         <v>2715</v>
@@ -12384,7 +12384,7 @@
         <v>2</v>
       </c>
       <c r="D227">
-        <v>320.75</v>
+        <v>334.25</v>
       </c>
       <c r="E227" t="s">
         <v>2715</v>
@@ -12817,19 +12817,19 @@
     </row>
     <row r="253" spans="1:5">
       <c r="A253">
-        <v>3975</v>
+        <v>9690</v>
       </c>
       <c r="B253" t="s">
         <v>191</v>
       </c>
       <c r="C253">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D253">
-        <v>58</v>
+        <v>379.75</v>
       </c>
       <c r="E253" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -12837,21 +12837,21 @@
         <v>3975</v>
       </c>
       <c r="B254" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C254">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D254">
-        <v>1392</v>
+        <v>58</v>
       </c>
       <c r="E254" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="255" spans="1:5">
       <c r="A255">
-        <v>5188</v>
+        <v>3975</v>
       </c>
       <c r="B255" t="s">
         <v>192</v>
@@ -12860,7 +12860,7 @@
         <v>1</v>
       </c>
       <c r="D255">
-        <v>871.25</v>
+        <v>1392</v>
       </c>
       <c r="E255" t="s">
         <v>2715</v>
@@ -12868,19 +12868,19 @@
     </row>
     <row r="256" spans="1:5">
       <c r="A256">
-        <v>23380</v>
+        <v>5188</v>
       </c>
       <c r="B256" t="s">
         <v>193</v>
       </c>
       <c r="C256">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D256">
-        <v>307</v>
+        <v>871.25</v>
       </c>
       <c r="E256" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -12888,30 +12888,30 @@
         <v>23380</v>
       </c>
       <c r="B257" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C257">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D257">
-        <v>921</v>
+        <v>307</v>
       </c>
       <c r="E257" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="258" spans="1:5">
       <c r="A258">
-        <v>1007</v>
+        <v>23380</v>
       </c>
       <c r="B258" t="s">
         <v>194</v>
       </c>
       <c r="C258">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D258">
-        <v>108</v>
+        <v>921</v>
       </c>
       <c r="E258" t="s">
         <v>2715</v>
@@ -12919,16 +12919,16 @@
     </row>
     <row r="259" spans="1:5">
       <c r="A259">
-        <v>9690</v>
+        <v>1007</v>
       </c>
       <c r="B259" t="s">
         <v>195</v>
       </c>
       <c r="C259">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D259">
-        <v>379.75</v>
+        <v>108</v>
       </c>
       <c r="E259" t="s">
         <v>2715</v>
@@ -13030,7 +13030,7 @@
         <v>2</v>
       </c>
       <c r="D265">
-        <v>307.5</v>
+        <v>307.25</v>
       </c>
       <c r="E265" t="s">
         <v>2715</v>
@@ -13268,7 +13268,7 @@
         <v>1</v>
       </c>
       <c r="D279">
-        <v>333</v>
+        <v>332.75</v>
       </c>
       <c r="E279" t="s">
         <v>2715</v>
@@ -13625,7 +13625,7 @@
         <v>2</v>
       </c>
       <c r="D300">
-        <v>307.75</v>
+        <v>307.5</v>
       </c>
       <c r="E300" t="s">
         <v>2715</v>
@@ -13897,7 +13897,7 @@
         <v>2</v>
       </c>
       <c r="D316">
-        <v>139.25</v>
+        <v>139</v>
       </c>
       <c r="E316" t="s">
         <v>2715</v>
@@ -13982,7 +13982,7 @@
         <v>10</v>
       </c>
       <c r="D321">
-        <v>37</v>
+        <v>36.75</v>
       </c>
       <c r="E321" t="s">
         <v>2714</v>
@@ -13999,7 +13999,7 @@
         <v>1</v>
       </c>
       <c r="D322">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E322" t="s">
         <v>2715</v>
@@ -14203,7 +14203,7 @@
         <v>1</v>
       </c>
       <c r="D334">
-        <v>846.25</v>
+        <v>846.75</v>
       </c>
       <c r="E334" t="s">
         <v>2715</v>
@@ -14220,7 +14220,7 @@
         <v>25</v>
       </c>
       <c r="D335">
-        <v>254.25</v>
+        <v>254.75</v>
       </c>
       <c r="E335" t="s">
         <v>2714</v>
@@ -14237,7 +14237,7 @@
         <v>29</v>
       </c>
       <c r="D336">
-        <v>762.75</v>
+        <v>764.25</v>
       </c>
       <c r="E336" t="s">
         <v>2715</v>
@@ -14339,7 +14339,7 @@
         <v>2</v>
       </c>
       <c r="D342">
-        <v>277.75</v>
+        <v>278</v>
       </c>
       <c r="E342" t="s">
         <v>2715</v>
@@ -14492,7 +14492,7 @@
         <v>1</v>
       </c>
       <c r="D351">
-        <v>728.75</v>
+        <v>722</v>
       </c>
       <c r="E351" t="s">
         <v>2715</v>
@@ -14679,7 +14679,7 @@
         <v>10</v>
       </c>
       <c r="D362">
-        <v>37</v>
+        <v>36.75</v>
       </c>
       <c r="E362" t="s">
         <v>2714</v>
@@ -14696,7 +14696,7 @@
         <v>1</v>
       </c>
       <c r="D363">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E363" t="s">
         <v>2715</v>
@@ -14747,7 +14747,7 @@
         <v>2</v>
       </c>
       <c r="D366">
-        <v>139.25</v>
+        <v>139</v>
       </c>
       <c r="E366" t="s">
         <v>2715</v>
@@ -14764,7 +14764,7 @@
         <v>2</v>
       </c>
       <c r="D367">
-        <v>264.75</v>
+        <v>264.5</v>
       </c>
       <c r="E367" t="s">
         <v>2715</v>
@@ -14968,7 +14968,7 @@
         <v>1</v>
       </c>
       <c r="D379">
-        <v>605</v>
+        <v>606.75</v>
       </c>
       <c r="E379" t="s">
         <v>2714</v>
@@ -14985,7 +14985,7 @@
         <v>2</v>
       </c>
       <c r="D380">
-        <v>1210</v>
+        <v>1213.5</v>
       </c>
       <c r="E380" t="s">
         <v>2715</v>
@@ -15282,7 +15282,7 @@
     </row>
     <row r="398" spans="1:5">
       <c r="A398">
-        <v>439</v>
+        <v>9691</v>
       </c>
       <c r="B398" t="s">
         <v>291</v>
@@ -15291,7 +15291,7 @@
         <v>1</v>
       </c>
       <c r="D398">
-        <v>329.5</v>
+        <v>377</v>
       </c>
       <c r="E398" t="s">
         <v>2715</v>
@@ -15299,16 +15299,16 @@
     </row>
     <row r="399" spans="1:5">
       <c r="A399">
-        <v>13250</v>
+        <v>439</v>
       </c>
       <c r="B399" t="s">
         <v>292</v>
       </c>
       <c r="C399">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D399">
-        <v>481.75</v>
+        <v>329.5</v>
       </c>
       <c r="E399" t="s">
         <v>2715</v>
@@ -15316,16 +15316,16 @@
     </row>
     <row r="400" spans="1:5">
       <c r="A400">
-        <v>10175</v>
+        <v>13250</v>
       </c>
       <c r="B400" t="s">
         <v>293</v>
       </c>
       <c r="C400">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D400">
-        <v>613</v>
+        <v>481.75</v>
       </c>
       <c r="E400" t="s">
         <v>2715</v>
@@ -15333,7 +15333,7 @@
     </row>
     <row r="401" spans="1:5">
       <c r="A401">
-        <v>1988</v>
+        <v>10175</v>
       </c>
       <c r="B401" t="s">
         <v>294</v>
@@ -15342,7 +15342,7 @@
         <v>1</v>
       </c>
       <c r="D401">
-        <v>672.5</v>
+        <v>613</v>
       </c>
       <c r="E401" t="s">
         <v>2715</v>
@@ -15350,16 +15350,16 @@
     </row>
     <row r="402" spans="1:5">
       <c r="A402">
-        <v>126</v>
+        <v>1988</v>
       </c>
       <c r="B402" t="s">
         <v>295</v>
       </c>
       <c r="C402">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D402">
-        <v>313</v>
+        <v>672.5</v>
       </c>
       <c r="E402" t="s">
         <v>2715</v>
@@ -15367,16 +15367,16 @@
     </row>
     <row r="403" spans="1:5">
       <c r="A403">
-        <v>9289</v>
+        <v>126</v>
       </c>
       <c r="B403" t="s">
         <v>296</v>
       </c>
       <c r="C403">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D403">
-        <v>442.5</v>
+        <v>315.75</v>
       </c>
       <c r="E403" t="s">
         <v>2715</v>
@@ -15384,16 +15384,16 @@
     </row>
     <row r="404" spans="1:5">
       <c r="A404">
-        <v>6158</v>
+        <v>9289</v>
       </c>
       <c r="B404" t="s">
         <v>297</v>
       </c>
       <c r="C404">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D404">
-        <v>111</v>
+        <v>442.5</v>
       </c>
       <c r="E404" t="s">
         <v>2715</v>
@@ -15401,16 +15401,16 @@
     </row>
     <row r="405" spans="1:5">
       <c r="A405">
-        <v>11089</v>
+        <v>6158</v>
       </c>
       <c r="B405" t="s">
         <v>298</v>
       </c>
       <c r="C405">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D405">
-        <v>167.5</v>
+        <v>111</v>
       </c>
       <c r="E405" t="s">
         <v>2715</v>
@@ -15418,16 +15418,16 @@
     </row>
     <row r="406" spans="1:5">
       <c r="A406">
-        <v>13266</v>
+        <v>11089</v>
       </c>
       <c r="B406" t="s">
         <v>299</v>
       </c>
       <c r="C406">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D406">
-        <v>251.5</v>
+        <v>167.5</v>
       </c>
       <c r="E406" t="s">
         <v>2715</v>
@@ -15435,16 +15435,16 @@
     </row>
     <row r="407" spans="1:5">
       <c r="A407">
-        <v>13606</v>
+        <v>13266</v>
       </c>
       <c r="B407" t="s">
         <v>300</v>
       </c>
       <c r="C407">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D407">
-        <v>323.75</v>
+        <v>251.5</v>
       </c>
       <c r="E407" t="s">
         <v>2715</v>
@@ -15452,7 +15452,7 @@
     </row>
     <row r="408" spans="1:5">
       <c r="A408">
-        <v>9691</v>
+        <v>13606</v>
       </c>
       <c r="B408" t="s">
         <v>301</v>
@@ -15461,7 +15461,7 @@
         <v>1</v>
       </c>
       <c r="D408">
-        <v>377</v>
+        <v>323.75</v>
       </c>
       <c r="E408" t="s">
         <v>2715</v>
@@ -15631,7 +15631,7 @@
         <v>1</v>
       </c>
       <c r="D418">
-        <v>231.5</v>
+        <v>231.75</v>
       </c>
       <c r="E418" t="s">
         <v>2715</v>
@@ -15784,7 +15784,7 @@
         <v>1</v>
       </c>
       <c r="D427">
-        <v>768.75</v>
+        <v>769.25</v>
       </c>
       <c r="E427" t="s">
         <v>2715</v>
@@ -15801,7 +15801,7 @@
         <v>1</v>
       </c>
       <c r="D428">
-        <v>768.75</v>
+        <v>769.25</v>
       </c>
       <c r="E428" t="s">
         <v>2715</v>
@@ -15835,7 +15835,7 @@
         <v>2</v>
       </c>
       <c r="D430">
-        <v>1202.75</v>
+        <v>1206.75</v>
       </c>
       <c r="E430" t="s">
         <v>2715</v>
@@ -16158,7 +16158,7 @@
         <v>2</v>
       </c>
       <c r="D449">
-        <v>99.5</v>
+        <v>99.75</v>
       </c>
       <c r="E449" t="s">
         <v>2715</v>
@@ -16234,16 +16234,16 @@
     </row>
     <row r="454" spans="1:5">
       <c r="A454">
-        <v>7887</v>
+        <v>2109</v>
       </c>
       <c r="B454" t="s">
         <v>331</v>
       </c>
       <c r="C454">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D454">
-        <v>206.75</v>
+        <v>62</v>
       </c>
       <c r="E454" t="s">
         <v>2714</v>
@@ -16251,7 +16251,7 @@
     </row>
     <row r="455" spans="1:5">
       <c r="A455">
-        <v>7887</v>
+        <v>2109</v>
       </c>
       <c r="B455" t="s">
         <v>331</v>
@@ -16260,7 +16260,7 @@
         <v>1</v>
       </c>
       <c r="D455">
-        <v>2481</v>
+        <v>744</v>
       </c>
       <c r="E455" t="s">
         <v>2715</v>
@@ -16268,50 +16268,50 @@
     </row>
     <row r="456" spans="1:5">
       <c r="A456">
-        <v>389</v>
+        <v>3</v>
       </c>
       <c r="B456" t="s">
         <v>332</v>
       </c>
       <c r="C456">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D456">
-        <v>138.75</v>
+        <v>236</v>
       </c>
       <c r="E456" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="457" spans="1:5">
       <c r="A457">
-        <v>389</v>
+        <v>7887</v>
       </c>
       <c r="B457" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C457">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D457">
-        <v>1665</v>
+        <v>206.75</v>
       </c>
       <c r="E457" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="458" spans="1:5">
       <c r="A458">
-        <v>8939</v>
+        <v>7887</v>
       </c>
       <c r="B458" t="s">
         <v>333</v>
       </c>
       <c r="C458">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D458">
-        <v>150.75</v>
+        <v>2481</v>
       </c>
       <c r="E458" t="s">
         <v>2715</v>
@@ -16319,16 +16319,16 @@
     </row>
     <row r="459" spans="1:5">
       <c r="A459">
-        <v>96</v>
+        <v>389</v>
       </c>
       <c r="B459" t="s">
         <v>334</v>
       </c>
       <c r="C459">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D459">
-        <v>34</v>
+        <v>138.75</v>
       </c>
       <c r="E459" t="s">
         <v>2714</v>
@@ -16336,7 +16336,7 @@
     </row>
     <row r="460" spans="1:5">
       <c r="A460">
-        <v>96</v>
+        <v>389</v>
       </c>
       <c r="B460" t="s">
         <v>334</v>
@@ -16345,7 +16345,7 @@
         <v>1</v>
       </c>
       <c r="D460">
-        <v>1632</v>
+        <v>1665</v>
       </c>
       <c r="E460" t="s">
         <v>2715</v>
@@ -16353,109 +16353,109 @@
     </row>
     <row r="461" spans="1:5">
       <c r="A461">
-        <v>8106</v>
+        <v>8939</v>
       </c>
       <c r="B461" t="s">
         <v>335</v>
       </c>
       <c r="C461">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D461">
-        <v>415.5</v>
+        <v>150.75</v>
       </c>
       <c r="E461" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="462" spans="1:5">
       <c r="A462">
-        <v>8106</v>
+        <v>96</v>
       </c>
       <c r="B462" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C462">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D462">
-        <v>831</v>
+        <v>34</v>
       </c>
       <c r="E462" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="463" spans="1:5">
       <c r="A463">
-        <v>972</v>
+        <v>96</v>
       </c>
       <c r="B463" t="s">
         <v>336</v>
       </c>
       <c r="C463">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D463">
-        <v>48.25</v>
+        <v>1632</v>
       </c>
       <c r="E463" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="464" spans="1:5">
       <c r="A464">
-        <v>972</v>
+        <v>8106</v>
       </c>
       <c r="B464" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C464">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D464">
-        <v>289.5</v>
+        <v>415.5</v>
       </c>
       <c r="E464" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="465" spans="1:5">
       <c r="A465">
-        <v>3049</v>
+        <v>8106</v>
       </c>
       <c r="B465" t="s">
         <v>337</v>
       </c>
       <c r="C465">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D465">
-        <v>200.25</v>
+        <v>831</v>
       </c>
       <c r="E465" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="466" spans="1:5">
       <c r="A466">
-        <v>3049</v>
+        <v>972</v>
       </c>
       <c r="B466" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C466">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D466">
-        <v>2403</v>
+        <v>48.25</v>
       </c>
       <c r="E466" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="467" spans="1:5">
       <c r="A467">
-        <v>21806</v>
+        <v>972</v>
       </c>
       <c r="B467" t="s">
         <v>338</v>
@@ -16464,7 +16464,7 @@
         <v>1</v>
       </c>
       <c r="D467">
-        <v>320.5</v>
+        <v>289.5</v>
       </c>
       <c r="E467" t="s">
         <v>2715</v>
@@ -16472,33 +16472,33 @@
     </row>
     <row r="468" spans="1:5">
       <c r="A468">
-        <v>2879</v>
+        <v>3049</v>
       </c>
       <c r="B468" t="s">
         <v>339</v>
       </c>
       <c r="C468">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D468">
-        <v>778.25</v>
+        <v>200.25</v>
       </c>
       <c r="E468" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="469" spans="1:5">
       <c r="A469">
-        <v>10254</v>
+        <v>3049</v>
       </c>
       <c r="B469" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C469">
         <v>1</v>
       </c>
       <c r="D469">
-        <v>478.5</v>
+        <v>2403</v>
       </c>
       <c r="E469" t="s">
         <v>2715</v>
@@ -16506,16 +16506,16 @@
     </row>
     <row r="470" spans="1:5">
       <c r="A470">
-        <v>11962</v>
+        <v>21806</v>
       </c>
       <c r="B470" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C470">
         <v>1</v>
       </c>
       <c r="D470">
-        <v>668.5</v>
+        <v>320.5</v>
       </c>
       <c r="E470" t="s">
         <v>2715</v>
@@ -16523,24 +16523,24 @@
     </row>
     <row r="471" spans="1:5">
       <c r="A471">
-        <v>5208</v>
+        <v>2879</v>
       </c>
       <c r="B471" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C471">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D471">
-        <v>51.5</v>
+        <v>778.25</v>
       </c>
       <c r="E471" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="472" spans="1:5">
       <c r="A472">
-        <v>5208</v>
+        <v>10254</v>
       </c>
       <c r="B472" t="s">
         <v>342</v>
@@ -16549,7 +16549,7 @@
         <v>1</v>
       </c>
       <c r="D472">
-        <v>1545</v>
+        <v>478.5</v>
       </c>
       <c r="E472" t="s">
         <v>2715</v>
@@ -16557,7 +16557,7 @@
     </row>
     <row r="473" spans="1:5">
       <c r="A473">
-        <v>9355</v>
+        <v>11962</v>
       </c>
       <c r="B473" t="s">
         <v>343</v>
@@ -16566,7 +16566,7 @@
         <v>1</v>
       </c>
       <c r="D473">
-        <v>332</v>
+        <v>668.5</v>
       </c>
       <c r="E473" t="s">
         <v>2715</v>
@@ -16574,16 +16574,16 @@
     </row>
     <row r="474" spans="1:5">
       <c r="A474">
-        <v>9065</v>
+        <v>5208</v>
       </c>
       <c r="B474" t="s">
         <v>344</v>
       </c>
       <c r="C474">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D474">
-        <v>95.25</v>
+        <v>51.5</v>
       </c>
       <c r="E474" t="s">
         <v>2714</v>
@@ -16591,7 +16591,7 @@
     </row>
     <row r="475" spans="1:5">
       <c r="A475">
-        <v>9065</v>
+        <v>5208</v>
       </c>
       <c r="B475" t="s">
         <v>344</v>
@@ -16600,7 +16600,7 @@
         <v>1</v>
       </c>
       <c r="D475">
-        <v>762</v>
+        <v>1545</v>
       </c>
       <c r="E475" t="s">
         <v>2715</v>
@@ -16608,50 +16608,50 @@
     </row>
     <row r="476" spans="1:5">
       <c r="A476">
-        <v>5939</v>
+        <v>9355</v>
       </c>
       <c r="B476" t="s">
         <v>345</v>
       </c>
       <c r="C476">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D476">
-        <v>108.5</v>
+        <v>332</v>
       </c>
       <c r="E476" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="477" spans="1:5">
       <c r="A477">
-        <v>5939</v>
+        <v>9065</v>
       </c>
       <c r="B477" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C477">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D477">
-        <v>651</v>
+        <v>95.75</v>
       </c>
       <c r="E477" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="478" spans="1:5">
       <c r="A478">
-        <v>3</v>
+        <v>9065</v>
       </c>
       <c r="B478" t="s">
         <v>346</v>
       </c>
       <c r="C478">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D478">
-        <v>236</v>
+        <v>766</v>
       </c>
       <c r="E478" t="s">
         <v>2715</v>
@@ -16659,16 +16659,16 @@
     </row>
     <row r="479" spans="1:5">
       <c r="A479">
-        <v>952</v>
+        <v>5939</v>
       </c>
       <c r="B479" t="s">
         <v>347</v>
       </c>
       <c r="C479">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D479">
-        <v>370.25</v>
+        <v>108.5</v>
       </c>
       <c r="E479" t="s">
         <v>2714</v>
@@ -16676,7 +16676,7 @@
     </row>
     <row r="480" spans="1:5">
       <c r="A480">
-        <v>952</v>
+        <v>5939</v>
       </c>
       <c r="B480" t="s">
         <v>347</v>
@@ -16685,7 +16685,7 @@
         <v>1</v>
       </c>
       <c r="D480">
-        <v>4443</v>
+        <v>651</v>
       </c>
       <c r="E480" t="s">
         <v>2715</v>
@@ -16693,33 +16693,33 @@
     </row>
     <row r="481" spans="1:5">
       <c r="A481">
-        <v>21810</v>
+        <v>952</v>
       </c>
       <c r="B481" t="s">
         <v>348</v>
       </c>
       <c r="C481">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D481">
-        <v>320.5</v>
+        <v>370.25</v>
       </c>
       <c r="E481" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="482" spans="1:5">
       <c r="A482">
-        <v>2774</v>
+        <v>952</v>
       </c>
       <c r="B482" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C482">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D482">
-        <v>139.25</v>
+        <v>4443</v>
       </c>
       <c r="E482" t="s">
         <v>2715</v>
@@ -16727,16 +16727,16 @@
     </row>
     <row r="483" spans="1:5">
       <c r="A483">
-        <v>11769</v>
+        <v>21810</v>
       </c>
       <c r="B483" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C483">
         <v>1</v>
       </c>
       <c r="D483">
-        <v>178.5</v>
+        <v>320.5</v>
       </c>
       <c r="E483" t="s">
         <v>2715</v>
@@ -16744,16 +16744,16 @@
     </row>
     <row r="484" spans="1:5">
       <c r="A484">
-        <v>11772</v>
+        <v>2774</v>
       </c>
       <c r="B484" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C484">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D484">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E484" t="s">
         <v>2715</v>
@@ -16761,16 +16761,16 @@
     </row>
     <row r="485" spans="1:5">
       <c r="A485">
-        <v>19924</v>
+        <v>11769</v>
       </c>
       <c r="B485" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C485">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D485">
-        <v>452.25</v>
+        <v>178</v>
       </c>
       <c r="E485" t="s">
         <v>2715</v>
@@ -16778,16 +16778,16 @@
     </row>
     <row r="486" spans="1:5">
       <c r="A486">
-        <v>13260</v>
+        <v>11772</v>
       </c>
       <c r="B486" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C486">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D486">
-        <v>396.5</v>
+        <v>131</v>
       </c>
       <c r="E486" t="s">
         <v>2715</v>
@@ -16795,16 +16795,16 @@
     </row>
     <row r="487" spans="1:5">
       <c r="A487">
-        <v>20984</v>
+        <v>19924</v>
       </c>
       <c r="B487" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C487">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D487">
-        <v>697</v>
+        <v>452.25</v>
       </c>
       <c r="E487" t="s">
         <v>2715</v>
@@ -16812,16 +16812,16 @@
     </row>
     <row r="488" spans="1:5">
       <c r="A488">
-        <v>22361</v>
+        <v>13260</v>
       </c>
       <c r="B488" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C488">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D488">
-        <v>705</v>
+        <v>396.5</v>
       </c>
       <c r="E488" t="s">
         <v>2715</v>
@@ -16829,16 +16829,16 @@
     </row>
     <row r="489" spans="1:5">
       <c r="A489">
-        <v>21809</v>
+        <v>20984</v>
       </c>
       <c r="B489" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C489">
         <v>1</v>
       </c>
       <c r="D489">
-        <v>320.5</v>
+        <v>697</v>
       </c>
       <c r="E489" t="s">
         <v>2715</v>
@@ -16846,24 +16846,24 @@
     </row>
     <row r="490" spans="1:5">
       <c r="A490">
-        <v>335</v>
+        <v>22361</v>
       </c>
       <c r="B490" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C490">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D490">
-        <v>22</v>
+        <v>705</v>
       </c>
       <c r="E490" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="491" spans="1:5">
       <c r="A491">
-        <v>335</v>
+        <v>21809</v>
       </c>
       <c r="B491" t="s">
         <v>357</v>
@@ -16872,7 +16872,7 @@
         <v>1</v>
       </c>
       <c r="D491">
-        <v>1056</v>
+        <v>320.5</v>
       </c>
       <c r="E491" t="s">
         <v>2715</v>
@@ -16880,33 +16880,33 @@
     </row>
     <row r="492" spans="1:5">
       <c r="A492">
-        <v>8355</v>
+        <v>335</v>
       </c>
       <c r="B492" t="s">
         <v>358</v>
       </c>
       <c r="C492">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D492">
-        <v>318.75</v>
+        <v>22</v>
       </c>
       <c r="E492" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="493" spans="1:5">
       <c r="A493">
-        <v>410</v>
+        <v>335</v>
       </c>
       <c r="B493" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C493">
         <v>1</v>
       </c>
       <c r="D493">
-        <v>275.5</v>
+        <v>1056</v>
       </c>
       <c r="E493" t="s">
         <v>2715</v>
@@ -16914,33 +16914,33 @@
     </row>
     <row r="494" spans="1:5">
       <c r="A494">
-        <v>333</v>
+        <v>8355</v>
       </c>
       <c r="B494" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C494">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D494">
-        <v>333.75</v>
+        <v>318.75</v>
       </c>
       <c r="E494" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="495" spans="1:5">
       <c r="A495">
-        <v>333</v>
+        <v>410</v>
       </c>
       <c r="B495" t="s">
         <v>360</v>
       </c>
       <c r="C495">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D495">
-        <v>1001.25</v>
+        <v>275.5</v>
       </c>
       <c r="E495" t="s">
         <v>2715</v>
@@ -16948,7 +16948,7 @@
     </row>
     <row r="496" spans="1:5">
       <c r="A496">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B496" t="s">
         <v>361</v>
@@ -16965,7 +16965,7 @@
     </row>
     <row r="497" spans="1:5">
       <c r="A497">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B497" t="s">
         <v>361</v>
@@ -16982,16 +16982,16 @@
     </row>
     <row r="498" spans="1:5">
       <c r="A498">
-        <v>8753</v>
+        <v>334</v>
       </c>
       <c r="B498" t="s">
         <v>362</v>
       </c>
       <c r="C498">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D498">
-        <v>83.5</v>
+        <v>333.75</v>
       </c>
       <c r="E498" t="s">
         <v>2714</v>
@@ -16999,16 +16999,16 @@
     </row>
     <row r="499" spans="1:5">
       <c r="A499">
-        <v>8753</v>
+        <v>334</v>
       </c>
       <c r="B499" t="s">
         <v>362</v>
       </c>
       <c r="C499">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D499">
-        <v>1002</v>
+        <v>1001.25</v>
       </c>
       <c r="E499" t="s">
         <v>2715</v>
@@ -17016,16 +17016,16 @@
     </row>
     <row r="500" spans="1:5">
       <c r="A500">
-        <v>23611</v>
+        <v>8753</v>
       </c>
       <c r="B500" t="s">
         <v>363</v>
       </c>
       <c r="C500">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D500">
-        <v>83</v>
+        <v>83.5</v>
       </c>
       <c r="E500" t="s">
         <v>2714</v>
@@ -17033,7 +17033,7 @@
     </row>
     <row r="501" spans="1:5">
       <c r="A501">
-        <v>23611</v>
+        <v>8753</v>
       </c>
       <c r="B501" t="s">
         <v>363</v>
@@ -17042,7 +17042,7 @@
         <v>1</v>
       </c>
       <c r="D501">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="E501" t="s">
         <v>2715</v>
@@ -17050,33 +17050,33 @@
     </row>
     <row r="502" spans="1:5">
       <c r="A502">
-        <v>11961</v>
+        <v>23611</v>
       </c>
       <c r="B502" t="s">
         <v>364</v>
       </c>
       <c r="C502">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D502">
-        <v>497</v>
+        <v>83</v>
       </c>
       <c r="E502" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="503" spans="1:5">
       <c r="A503">
-        <v>10455</v>
+        <v>23611</v>
       </c>
       <c r="B503" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C503">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D503">
-        <v>404.75</v>
+        <v>996</v>
       </c>
       <c r="E503" t="s">
         <v>2715</v>
@@ -17084,16 +17084,16 @@
     </row>
     <row r="504" spans="1:5">
       <c r="A504">
-        <v>11490</v>
+        <v>11961</v>
       </c>
       <c r="B504" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C504">
         <v>1</v>
       </c>
       <c r="D504">
-        <v>265.25</v>
+        <v>497</v>
       </c>
       <c r="E504" t="s">
         <v>2715</v>
@@ -17101,24 +17101,24 @@
     </row>
     <row r="505" spans="1:5">
       <c r="A505">
-        <v>5940</v>
+        <v>10455</v>
       </c>
       <c r="B505" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C505">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D505">
-        <v>108.5</v>
+        <v>404.75</v>
       </c>
       <c r="E505" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="506" spans="1:5">
       <c r="A506">
-        <v>5940</v>
+        <v>11490</v>
       </c>
       <c r="B506" t="s">
         <v>367</v>
@@ -17127,7 +17127,7 @@
         <v>1</v>
       </c>
       <c r="D506">
-        <v>651</v>
+        <v>265.25</v>
       </c>
       <c r="E506" t="s">
         <v>2715</v>
@@ -17135,33 +17135,33 @@
     </row>
     <row r="507" spans="1:5">
       <c r="A507">
-        <v>12614</v>
+        <v>5940</v>
       </c>
       <c r="B507" t="s">
         <v>368</v>
       </c>
       <c r="C507">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D507">
-        <v>296.5</v>
+        <v>108.5</v>
       </c>
       <c r="E507" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="508" spans="1:5">
       <c r="A508">
-        <v>12229</v>
+        <v>5940</v>
       </c>
       <c r="B508" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C508">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D508">
-        <v>191.5</v>
+        <v>651</v>
       </c>
       <c r="E508" t="s">
         <v>2715</v>
@@ -17169,16 +17169,16 @@
     </row>
     <row r="509" spans="1:5">
       <c r="A509">
-        <v>2538</v>
+        <v>12614</v>
       </c>
       <c r="B509" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C509">
         <v>1</v>
       </c>
       <c r="D509">
-        <v>946</v>
+        <v>296.25</v>
       </c>
       <c r="E509" t="s">
         <v>2715</v>
@@ -17186,16 +17186,16 @@
     </row>
     <row r="510" spans="1:5">
       <c r="A510">
-        <v>24257</v>
+        <v>12229</v>
       </c>
       <c r="B510" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C510">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D510">
-        <v>204.25</v>
+        <v>191.5</v>
       </c>
       <c r="E510" t="s">
         <v>2715</v>
@@ -17203,16 +17203,16 @@
     </row>
     <row r="511" spans="1:5">
       <c r="A511">
-        <v>584</v>
+        <v>2538</v>
       </c>
       <c r="B511" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C511">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D511">
-        <v>317.25</v>
+        <v>946</v>
       </c>
       <c r="E511" t="s">
         <v>2715</v>
@@ -17220,33 +17220,33 @@
     </row>
     <row r="512" spans="1:5">
       <c r="A512">
-        <v>1301</v>
+        <v>24257</v>
       </c>
       <c r="B512" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C512">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D512">
-        <v>122.25</v>
+        <v>204.25</v>
       </c>
       <c r="E512" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="513" spans="1:5">
       <c r="A513">
-        <v>1301</v>
+        <v>584</v>
       </c>
       <c r="B513" t="s">
         <v>373</v>
       </c>
       <c r="C513">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D513">
-        <v>733.5</v>
+        <v>325.5</v>
       </c>
       <c r="E513" t="s">
         <v>2715</v>
@@ -17254,33 +17254,33 @@
     </row>
     <row r="514" spans="1:5">
       <c r="A514">
-        <v>409</v>
+        <v>1301</v>
       </c>
       <c r="B514" t="s">
         <v>374</v>
       </c>
       <c r="C514">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D514">
-        <v>524.75</v>
+        <v>122.25</v>
       </c>
       <c r="E514" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="515" spans="1:5">
       <c r="A515">
-        <v>955</v>
+        <v>1301</v>
       </c>
       <c r="B515" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C515">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D515">
-        <v>266.5</v>
+        <v>733.5</v>
       </c>
       <c r="E515" t="s">
         <v>2715</v>
@@ -17288,33 +17288,33 @@
     </row>
     <row r="516" spans="1:5">
       <c r="A516">
-        <v>8283</v>
+        <v>409</v>
       </c>
       <c r="B516" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C516">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D516">
-        <v>60.75</v>
+        <v>524.75</v>
       </c>
       <c r="E516" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="517" spans="1:5">
       <c r="A517">
-        <v>8283</v>
+        <v>955</v>
       </c>
       <c r="B517" t="s">
         <v>376</v>
       </c>
       <c r="C517">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D517">
-        <v>729</v>
+        <v>266.5</v>
       </c>
       <c r="E517" t="s">
         <v>2715</v>
@@ -17322,33 +17322,33 @@
     </row>
     <row r="518" spans="1:5">
       <c r="A518">
-        <v>824</v>
+        <v>8283</v>
       </c>
       <c r="B518" t="s">
         <v>377</v>
       </c>
       <c r="C518">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D518">
-        <v>323.75</v>
+        <v>60.75</v>
       </c>
       <c r="E518" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="519" spans="1:5">
       <c r="A519">
-        <v>4940</v>
+        <v>8283</v>
       </c>
       <c r="B519" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C519">
         <v>1</v>
       </c>
       <c r="D519">
-        <v>239.25</v>
+        <v>729</v>
       </c>
       <c r="E519" t="s">
         <v>2715</v>
@@ -17356,16 +17356,16 @@
     </row>
     <row r="520" spans="1:5">
       <c r="A520">
-        <v>202</v>
+        <v>824</v>
       </c>
       <c r="B520" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C520">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D520">
-        <v>397</v>
+        <v>324</v>
       </c>
       <c r="E520" t="s">
         <v>2715</v>
@@ -17373,16 +17373,16 @@
     </row>
     <row r="521" spans="1:5">
       <c r="A521">
-        <v>19330</v>
+        <v>4940</v>
       </c>
       <c r="B521" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C521">
         <v>1</v>
       </c>
       <c r="D521">
-        <v>401</v>
+        <v>239.25</v>
       </c>
       <c r="E521" t="s">
         <v>2715</v>
@@ -17390,16 +17390,16 @@
     </row>
     <row r="522" spans="1:5">
       <c r="A522">
-        <v>9786</v>
+        <v>202</v>
       </c>
       <c r="B522" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C522">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D522">
-        <v>395.25</v>
+        <v>397</v>
       </c>
       <c r="E522" t="s">
         <v>2715</v>
@@ -17407,16 +17407,16 @@
     </row>
     <row r="523" spans="1:5">
       <c r="A523">
-        <v>2878</v>
+        <v>19330</v>
       </c>
       <c r="B523" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C523">
         <v>1</v>
       </c>
       <c r="D523">
-        <v>358.25</v>
+        <v>400</v>
       </c>
       <c r="E523" t="s">
         <v>2715</v>
@@ -17424,24 +17424,24 @@
     </row>
     <row r="524" spans="1:5">
       <c r="A524">
-        <v>2109</v>
+        <v>9786</v>
       </c>
       <c r="B524" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C524">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D524">
-        <v>62</v>
+        <v>395.25</v>
       </c>
       <c r="E524" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="525" spans="1:5">
       <c r="A525">
-        <v>2109</v>
+        <v>2878</v>
       </c>
       <c r="B525" t="s">
         <v>383</v>
@@ -17450,7 +17450,7 @@
         <v>1</v>
       </c>
       <c r="D525">
-        <v>744</v>
+        <v>358.25</v>
       </c>
       <c r="E525" t="s">
         <v>2715</v>
@@ -17552,7 +17552,7 @@
         <v>2</v>
       </c>
       <c r="D531">
-        <v>1200.25</v>
+        <v>1205.25</v>
       </c>
       <c r="E531" t="s">
         <v>2715</v>
@@ -17943,7 +17943,7 @@
         <v>1</v>
       </c>
       <c r="D554">
-        <v>45.25</v>
+        <v>44.75</v>
       </c>
       <c r="E554" t="s">
         <v>2715</v>
@@ -18283,7 +18283,7 @@
         <v>1</v>
       </c>
       <c r="D574">
-        <v>767</v>
+        <v>767.25</v>
       </c>
       <c r="E574" t="s">
         <v>2715</v>
@@ -18359,33 +18359,33 @@
     </row>
     <row r="579" spans="1:5">
       <c r="A579">
-        <v>5434</v>
+        <v>107</v>
       </c>
       <c r="B579" t="s">
         <v>419</v>
       </c>
       <c r="C579">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D579">
-        <v>588.75</v>
+        <v>118.75</v>
       </c>
       <c r="E579" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="580" spans="1:5">
       <c r="A580">
-        <v>10124</v>
+        <v>107</v>
       </c>
       <c r="B580" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C580">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D580">
-        <v>269.25</v>
+        <v>593.75</v>
       </c>
       <c r="E580" t="s">
         <v>2715</v>
@@ -18393,16 +18393,16 @@
     </row>
     <row r="581" spans="1:5">
       <c r="A581">
-        <v>21060</v>
+        <v>5434</v>
       </c>
       <c r="B581" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C581">
         <v>1</v>
       </c>
       <c r="D581">
-        <v>88.25</v>
+        <v>588.75</v>
       </c>
       <c r="E581" t="s">
         <v>2715</v>
@@ -18410,24 +18410,24 @@
     </row>
     <row r="582" spans="1:5">
       <c r="A582">
-        <v>5812</v>
+        <v>10124</v>
       </c>
       <c r="B582" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C582">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D582">
-        <v>47.75</v>
+        <v>269.25</v>
       </c>
       <c r="E582" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="583" spans="1:5">
       <c r="A583">
-        <v>5812</v>
+        <v>21060</v>
       </c>
       <c r="B583" t="s">
         <v>422</v>
@@ -18436,7 +18436,7 @@
         <v>1</v>
       </c>
       <c r="D583">
-        <v>573</v>
+        <v>88.25</v>
       </c>
       <c r="E583" t="s">
         <v>2715</v>
@@ -18444,16 +18444,16 @@
     </row>
     <row r="584" spans="1:5">
       <c r="A584">
-        <v>2709</v>
+        <v>5812</v>
       </c>
       <c r="B584" t="s">
         <v>423</v>
       </c>
       <c r="C584">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D584">
-        <v>60.5</v>
+        <v>47.75</v>
       </c>
       <c r="E584" t="s">
         <v>2714</v>
@@ -18461,16 +18461,16 @@
     </row>
     <row r="585" spans="1:5">
       <c r="A585">
-        <v>2709</v>
+        <v>5812</v>
       </c>
       <c r="B585" t="s">
         <v>423</v>
       </c>
       <c r="C585">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D585">
-        <v>907.5</v>
+        <v>573</v>
       </c>
       <c r="E585" t="s">
         <v>2715</v>
@@ -18481,16 +18481,16 @@
         <v>2709</v>
       </c>
       <c r="B586" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C586">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D586">
-        <v>1815</v>
+        <v>60.5</v>
       </c>
       <c r="E586" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="587" spans="1:5">
@@ -18498,13 +18498,13 @@
         <v>2709</v>
       </c>
       <c r="B587" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C587">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D587">
-        <v>2904</v>
+        <v>907.5</v>
       </c>
       <c r="E587" t="s">
         <v>2715</v>
@@ -18512,24 +18512,24 @@
     </row>
     <row r="588" spans="1:5">
       <c r="A588">
-        <v>201</v>
+        <v>2709</v>
       </c>
       <c r="B588" t="s">
         <v>424</v>
       </c>
       <c r="C588">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D588">
-        <v>95.5</v>
+        <v>1815</v>
       </c>
       <c r="E588" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="589" spans="1:5">
       <c r="A589">
-        <v>201</v>
+        <v>2709</v>
       </c>
       <c r="B589" t="s">
         <v>424</v>
@@ -18538,7 +18538,7 @@
         <v>1</v>
       </c>
       <c r="D589">
-        <v>955</v>
+        <v>2904</v>
       </c>
       <c r="E589" t="s">
         <v>2715</v>
@@ -18546,33 +18546,33 @@
     </row>
     <row r="590" spans="1:5">
       <c r="A590">
-        <v>11618</v>
+        <v>201</v>
       </c>
       <c r="B590" t="s">
         <v>425</v>
       </c>
       <c r="C590">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D590">
-        <v>166.75</v>
+        <v>95.5</v>
       </c>
       <c r="E590" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="591" spans="1:5">
       <c r="A591">
-        <v>4033</v>
+        <v>201</v>
       </c>
       <c r="B591" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C591">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D591">
-        <v>281.5</v>
+        <v>955</v>
       </c>
       <c r="E591" t="s">
         <v>2715</v>
@@ -18580,16 +18580,16 @@
     </row>
     <row r="592" spans="1:5">
       <c r="A592">
-        <v>3337</v>
+        <v>11618</v>
       </c>
       <c r="B592" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C592">
         <v>1</v>
       </c>
       <c r="D592">
-        <v>216.25</v>
+        <v>166.75</v>
       </c>
       <c r="E592" t="s">
         <v>2715</v>
@@ -18597,16 +18597,16 @@
     </row>
     <row r="593" spans="1:5">
       <c r="A593">
-        <v>1700</v>
+        <v>4033</v>
       </c>
       <c r="B593" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C593">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D593">
-        <v>398.25</v>
+        <v>281.5</v>
       </c>
       <c r="E593" t="s">
         <v>2715</v>
@@ -18614,33 +18614,33 @@
     </row>
     <row r="594" spans="1:5">
       <c r="A594">
-        <v>5020</v>
+        <v>3337</v>
       </c>
       <c r="B594" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C594">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D594">
-        <v>57.25</v>
+        <v>216.25</v>
       </c>
       <c r="E594" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="595" spans="1:5">
       <c r="A595">
-        <v>5020</v>
+        <v>1700</v>
       </c>
       <c r="B595" t="s">
         <v>429</v>
       </c>
       <c r="C595">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D595">
-        <v>2748</v>
+        <v>398.25</v>
       </c>
       <c r="E595" t="s">
         <v>2715</v>
@@ -18648,33 +18648,33 @@
     </row>
     <row r="596" spans="1:5">
       <c r="A596">
-        <v>21059</v>
+        <v>5020</v>
       </c>
       <c r="B596" t="s">
         <v>430</v>
       </c>
       <c r="C596">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D596">
-        <v>88.25</v>
+        <v>57.25</v>
       </c>
       <c r="E596" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="597" spans="1:5">
       <c r="A597">
-        <v>9129</v>
+        <v>5020</v>
       </c>
       <c r="B597" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C597">
         <v>1</v>
       </c>
       <c r="D597">
-        <v>165.5</v>
+        <v>2748</v>
       </c>
       <c r="E597" t="s">
         <v>2715</v>
@@ -18682,16 +18682,16 @@
     </row>
     <row r="598" spans="1:5">
       <c r="A598">
-        <v>2190</v>
+        <v>21059</v>
       </c>
       <c r="B598" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C598">
         <v>1</v>
       </c>
       <c r="D598">
-        <v>674.75</v>
+        <v>88.25</v>
       </c>
       <c r="E598" t="s">
         <v>2715</v>
@@ -18699,16 +18699,16 @@
     </row>
     <row r="599" spans="1:5">
       <c r="A599">
-        <v>4328</v>
+        <v>9129</v>
       </c>
       <c r="B599" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C599">
         <v>1</v>
       </c>
       <c r="D599">
-        <v>871.25</v>
+        <v>165.5</v>
       </c>
       <c r="E599" t="s">
         <v>2715</v>
@@ -18716,16 +18716,16 @@
     </row>
     <row r="600" spans="1:5">
       <c r="A600">
-        <v>1126</v>
+        <v>2190</v>
       </c>
       <c r="B600" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C600">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D600">
-        <v>126</v>
+        <v>674.75</v>
       </c>
       <c r="E600" t="s">
         <v>2715</v>
@@ -18733,16 +18733,16 @@
     </row>
     <row r="601" spans="1:5">
       <c r="A601">
-        <v>9964</v>
+        <v>4328</v>
       </c>
       <c r="B601" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C601">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D601">
-        <v>105.5</v>
+        <v>871.25</v>
       </c>
       <c r="E601" t="s">
         <v>2715</v>
@@ -18750,33 +18750,33 @@
     </row>
     <row r="602" spans="1:5">
       <c r="A602">
-        <v>944</v>
+        <v>1126</v>
       </c>
       <c r="B602" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C602">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D602">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="E602" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="603" spans="1:5">
       <c r="A603">
-        <v>944</v>
+        <v>9964</v>
       </c>
       <c r="B603" t="s">
         <v>436</v>
       </c>
       <c r="C603">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D603">
-        <v>660</v>
+        <v>105.5</v>
       </c>
       <c r="E603" t="s">
         <v>2715</v>
@@ -18787,16 +18787,16 @@
         <v>944</v>
       </c>
       <c r="B604" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C604">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D604">
-        <v>1320</v>
+        <v>55</v>
       </c>
       <c r="E604" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="605" spans="1:5">
@@ -18804,13 +18804,13 @@
         <v>944</v>
       </c>
       <c r="B605" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C605">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D605">
-        <v>2640</v>
+        <v>660</v>
       </c>
       <c r="E605" t="s">
         <v>2715</v>
@@ -18818,24 +18818,24 @@
     </row>
     <row r="606" spans="1:5">
       <c r="A606">
-        <v>962</v>
+        <v>944</v>
       </c>
       <c r="B606" t="s">
         <v>437</v>
       </c>
       <c r="C606">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D606">
-        <v>54.25</v>
+        <v>1320</v>
       </c>
       <c r="E606" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="607" spans="1:5">
       <c r="A607">
-        <v>962</v>
+        <v>944</v>
       </c>
       <c r="B607" t="s">
         <v>437</v>
@@ -18844,7 +18844,7 @@
         <v>1</v>
       </c>
       <c r="D607">
-        <v>651</v>
+        <v>2640</v>
       </c>
       <c r="E607" t="s">
         <v>2715</v>
@@ -18852,16 +18852,16 @@
     </row>
     <row r="608" spans="1:5">
       <c r="A608">
-        <v>10594</v>
+        <v>962</v>
       </c>
       <c r="B608" t="s">
         <v>438</v>
       </c>
       <c r="C608">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D608">
-        <v>214.5</v>
+        <v>54.25</v>
       </c>
       <c r="E608" t="s">
         <v>2714</v>
@@ -18869,7 +18869,7 @@
     </row>
     <row r="609" spans="1:5">
       <c r="A609">
-        <v>10594</v>
+        <v>962</v>
       </c>
       <c r="B609" t="s">
         <v>438</v>
@@ -18878,7 +18878,7 @@
         <v>1</v>
       </c>
       <c r="D609">
-        <v>2574</v>
+        <v>651</v>
       </c>
       <c r="E609" t="s">
         <v>2715</v>
@@ -18886,50 +18886,50 @@
     </row>
     <row r="610" spans="1:5">
       <c r="A610">
-        <v>21454</v>
+        <v>10594</v>
       </c>
       <c r="B610" t="s">
         <v>439</v>
       </c>
       <c r="C610">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D610">
-        <v>868</v>
+        <v>214.5</v>
       </c>
       <c r="E610" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="611" spans="1:5">
       <c r="A611">
-        <v>23599</v>
+        <v>10594</v>
       </c>
       <c r="B611" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C611">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D611">
-        <v>106.5</v>
+        <v>2574</v>
       </c>
       <c r="E611" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="612" spans="1:5">
       <c r="A612">
-        <v>23599</v>
+        <v>21454</v>
       </c>
       <c r="B612" t="s">
         <v>440</v>
       </c>
       <c r="C612">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D612">
-        <v>852</v>
+        <v>868</v>
       </c>
       <c r="E612" t="s">
         <v>2715</v>
@@ -18937,33 +18937,33 @@
     </row>
     <row r="613" spans="1:5">
       <c r="A613">
-        <v>11160</v>
+        <v>23599</v>
       </c>
       <c r="B613" t="s">
         <v>441</v>
       </c>
       <c r="C613">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D613">
-        <v>56.5</v>
+        <v>106.5</v>
       </c>
       <c r="E613" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="614" spans="1:5">
       <c r="A614">
-        <v>8085</v>
+        <v>23599</v>
       </c>
       <c r="B614" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C614">
         <v>1</v>
       </c>
       <c r="D614">
-        <v>318.75</v>
+        <v>852</v>
       </c>
       <c r="E614" t="s">
         <v>2715</v>
@@ -18971,16 +18971,16 @@
     </row>
     <row r="615" spans="1:5">
       <c r="A615">
-        <v>11164</v>
+        <v>11160</v>
       </c>
       <c r="B615" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C615">
         <v>1</v>
       </c>
       <c r="D615">
-        <v>64.75</v>
+        <v>56.5</v>
       </c>
       <c r="E615" t="s">
         <v>2715</v>
@@ -18988,16 +18988,16 @@
     </row>
     <row r="616" spans="1:5">
       <c r="A616">
-        <v>2669</v>
+        <v>8085</v>
       </c>
       <c r="B616" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C616">
         <v>1</v>
       </c>
       <c r="D616">
-        <v>504.75</v>
+        <v>318.75</v>
       </c>
       <c r="E616" t="s">
         <v>2715</v>
@@ -19005,33 +19005,33 @@
     </row>
     <row r="617" spans="1:5">
       <c r="A617">
-        <v>8990</v>
+        <v>11164</v>
       </c>
       <c r="B617" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C617">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D617">
-        <v>272</v>
+        <v>64.75</v>
       </c>
       <c r="E617" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="618" spans="1:5">
       <c r="A618">
-        <v>8990</v>
+        <v>2669</v>
       </c>
       <c r="B618" t="s">
         <v>445</v>
       </c>
       <c r="C618">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D618">
-        <v>816</v>
+        <v>504.75</v>
       </c>
       <c r="E618" t="s">
         <v>2715</v>
@@ -19039,16 +19039,16 @@
     </row>
     <row r="619" spans="1:5">
       <c r="A619">
-        <v>14038</v>
+        <v>8990</v>
       </c>
       <c r="B619" t="s">
         <v>446</v>
       </c>
       <c r="C619">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D619">
-        <v>102.5</v>
+        <v>272</v>
       </c>
       <c r="E619" t="s">
         <v>2714</v>
@@ -19056,16 +19056,16 @@
     </row>
     <row r="620" spans="1:5">
       <c r="A620">
-        <v>14038</v>
+        <v>8990</v>
       </c>
       <c r="B620" t="s">
         <v>446</v>
       </c>
       <c r="C620">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D620">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="E620" t="s">
         <v>2715</v>
@@ -19073,41 +19073,41 @@
     </row>
     <row r="621" spans="1:5">
       <c r="A621">
-        <v>12656</v>
+        <v>14038</v>
       </c>
       <c r="B621" t="s">
         <v>447</v>
       </c>
       <c r="C621">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D621">
-        <v>345</v>
+        <v>102.5</v>
       </c>
       <c r="E621" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="622" spans="1:5">
       <c r="A622">
-        <v>3048</v>
+        <v>14038</v>
       </c>
       <c r="B622" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C622">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D622">
-        <v>100.25</v>
+        <v>820</v>
       </c>
       <c r="E622" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="623" spans="1:5">
       <c r="A623">
-        <v>3048</v>
+        <v>12656</v>
       </c>
       <c r="B623" t="s">
         <v>448</v>
@@ -19116,7 +19116,7 @@
         <v>1</v>
       </c>
       <c r="D623">
-        <v>2406</v>
+        <v>345</v>
       </c>
       <c r="E623" t="s">
         <v>2715</v>
@@ -19124,16 +19124,16 @@
     </row>
     <row r="624" spans="1:5">
       <c r="A624">
-        <v>11885</v>
+        <v>3048</v>
       </c>
       <c r="B624" t="s">
         <v>449</v>
       </c>
       <c r="C624">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D624">
-        <v>150.25</v>
+        <v>100.25</v>
       </c>
       <c r="E624" t="s">
         <v>2714</v>
@@ -19141,7 +19141,7 @@
     </row>
     <row r="625" spans="1:5">
       <c r="A625">
-        <v>11885</v>
+        <v>3048</v>
       </c>
       <c r="B625" t="s">
         <v>449</v>
@@ -19150,7 +19150,7 @@
         <v>1</v>
       </c>
       <c r="D625">
-        <v>1202</v>
+        <v>2406</v>
       </c>
       <c r="E625" t="s">
         <v>2715</v>
@@ -19158,33 +19158,33 @@
     </row>
     <row r="626" spans="1:5">
       <c r="A626">
-        <v>17</v>
+        <v>11885</v>
       </c>
       <c r="B626" t="s">
         <v>450</v>
       </c>
       <c r="C626">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D626">
-        <v>596</v>
+        <v>150.25</v>
       </c>
       <c r="E626" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="627" spans="1:5">
       <c r="A627">
-        <v>22973</v>
+        <v>11885</v>
       </c>
       <c r="B627" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C627">
         <v>1</v>
       </c>
       <c r="D627">
-        <v>617</v>
+        <v>1202</v>
       </c>
       <c r="E627" t="s">
         <v>2715</v>
@@ -19192,16 +19192,16 @@
     </row>
     <row r="628" spans="1:5">
       <c r="A628">
-        <v>7324</v>
+        <v>17</v>
       </c>
       <c r="B628" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C628">
         <v>1</v>
       </c>
       <c r="D628">
-        <v>474.5</v>
+        <v>596</v>
       </c>
       <c r="E628" t="s">
         <v>2715</v>
@@ -19209,33 +19209,33 @@
     </row>
     <row r="629" spans="1:5">
       <c r="A629">
-        <v>107</v>
+        <v>22973</v>
       </c>
       <c r="B629" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C629">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D629">
-        <v>118.75</v>
+        <v>616.25</v>
       </c>
       <c r="E629" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="630" spans="1:5">
       <c r="A630">
-        <v>107</v>
+        <v>7324</v>
       </c>
       <c r="B630" t="s">
         <v>453</v>
       </c>
       <c r="C630">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D630">
-        <v>593.75</v>
+        <v>474.5</v>
       </c>
       <c r="E630" t="s">
         <v>2715</v>
@@ -19337,7 +19337,7 @@
         <v>2</v>
       </c>
       <c r="D636">
-        <v>1168.5</v>
+        <v>1172.25</v>
       </c>
       <c r="E636" t="s">
         <v>2715</v>
@@ -19558,7 +19558,7 @@
         <v>2</v>
       </c>
       <c r="D649">
-        <v>189</v>
+        <v>189.25</v>
       </c>
       <c r="E649" t="s">
         <v>2714</v>
@@ -19575,7 +19575,7 @@
         <v>1</v>
       </c>
       <c r="D650">
-        <v>2268</v>
+        <v>2271</v>
       </c>
       <c r="E650" t="s">
         <v>2715</v>
@@ -19855,16 +19855,16 @@
     </row>
     <row r="667" spans="1:5">
       <c r="A667">
-        <v>9138</v>
+        <v>66</v>
       </c>
       <c r="B667" t="s">
         <v>475</v>
       </c>
       <c r="C667">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D667">
-        <v>27.75</v>
+        <v>31.25</v>
       </c>
       <c r="E667" t="s">
         <v>2714</v>
@@ -19872,16 +19872,16 @@
     </row>
     <row r="668" spans="1:5">
       <c r="A668">
-        <v>9138</v>
+        <v>66</v>
       </c>
       <c r="B668" t="s">
         <v>475</v>
       </c>
       <c r="C668">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D668">
-        <v>166.5</v>
+        <v>187.5</v>
       </c>
       <c r="E668" t="s">
         <v>2715</v>
@@ -19889,16 +19889,16 @@
     </row>
     <row r="669" spans="1:5">
       <c r="A669">
-        <v>9138</v>
+        <v>66</v>
       </c>
       <c r="B669" t="s">
         <v>475</v>
       </c>
       <c r="C669">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D669">
-        <v>999</v>
+        <v>375</v>
       </c>
       <c r="E669" t="s">
         <v>2715</v>
@@ -19906,50 +19906,50 @@
     </row>
     <row r="670" spans="1:5">
       <c r="A670">
-        <v>180</v>
+        <v>66</v>
       </c>
       <c r="B670" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C670">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D670">
-        <v>22.5</v>
+        <v>750</v>
       </c>
       <c r="E670" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="671" spans="1:5">
       <c r="A671">
-        <v>180</v>
+        <v>9138</v>
       </c>
       <c r="B671" t="s">
         <v>476</v>
       </c>
       <c r="C671">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D671">
-        <v>270</v>
+        <v>27.75</v>
       </c>
       <c r="E671" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="672" spans="1:5">
       <c r="A672">
-        <v>180</v>
+        <v>9138</v>
       </c>
       <c r="B672" t="s">
         <v>476</v>
       </c>
       <c r="C672">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D672">
-        <v>540</v>
+        <v>166.5</v>
       </c>
       <c r="E672" t="s">
         <v>2715</v>
@@ -19957,7 +19957,7 @@
     </row>
     <row r="673" spans="1:5">
       <c r="A673">
-        <v>180</v>
+        <v>9138</v>
       </c>
       <c r="B673" t="s">
         <v>476</v>
@@ -19966,7 +19966,7 @@
         <v>1</v>
       </c>
       <c r="D673">
-        <v>1080</v>
+        <v>999</v>
       </c>
       <c r="E673" t="s">
         <v>2715</v>
@@ -19974,16 +19974,16 @@
     </row>
     <row r="674" spans="1:5">
       <c r="A674">
-        <v>8285</v>
+        <v>180</v>
       </c>
       <c r="B674" t="s">
         <v>477</v>
       </c>
       <c r="C674">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D674">
-        <v>60</v>
+        <v>22.5</v>
       </c>
       <c r="E674" t="s">
         <v>2714</v>
@@ -19991,16 +19991,16 @@
     </row>
     <row r="675" spans="1:5">
       <c r="A675">
-        <v>8285</v>
+        <v>180</v>
       </c>
       <c r="B675" t="s">
         <v>477</v>
       </c>
       <c r="C675">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D675">
-        <v>720</v>
+        <v>270</v>
       </c>
       <c r="E675" t="s">
         <v>2715</v>
@@ -20008,33 +20008,33 @@
     </row>
     <row r="676" spans="1:5">
       <c r="A676">
-        <v>8286</v>
+        <v>180</v>
       </c>
       <c r="B676" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C676">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D676">
-        <v>60.75</v>
+        <v>540</v>
       </c>
       <c r="E676" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="677" spans="1:5">
       <c r="A677">
-        <v>8286</v>
+        <v>180</v>
       </c>
       <c r="B677" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C677">
         <v>1</v>
       </c>
       <c r="D677">
-        <v>729</v>
+        <v>1080</v>
       </c>
       <c r="E677" t="s">
         <v>2715</v>
@@ -20042,33 +20042,33 @@
     </row>
     <row r="678" spans="1:5">
       <c r="A678">
-        <v>1776</v>
+        <v>8285</v>
       </c>
       <c r="B678" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C678">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D678">
-        <v>250.75</v>
+        <v>60</v>
       </c>
       <c r="E678" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="679" spans="1:5">
       <c r="A679">
-        <v>1777</v>
+        <v>8285</v>
       </c>
       <c r="B679" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C679">
         <v>1</v>
       </c>
       <c r="D679">
-        <v>253</v>
+        <v>720</v>
       </c>
       <c r="E679" t="s">
         <v>2715</v>
@@ -20076,50 +20076,50 @@
     </row>
     <row r="680" spans="1:5">
       <c r="A680">
-        <v>2608</v>
+        <v>8286</v>
       </c>
       <c r="B680" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C680">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D680">
-        <v>712</v>
+        <v>60.75</v>
       </c>
       <c r="E680" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="681" spans="1:5">
       <c r="A681">
-        <v>12237</v>
+        <v>8286</v>
       </c>
       <c r="B681" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C681">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D681">
-        <v>177</v>
+        <v>729</v>
       </c>
       <c r="E681" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="682" spans="1:5">
       <c r="A682">
-        <v>12237</v>
+        <v>1776</v>
       </c>
       <c r="B682" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C682">
         <v>1</v>
       </c>
       <c r="D682">
-        <v>708</v>
+        <v>250.75</v>
       </c>
       <c r="E682" t="s">
         <v>2715</v>
@@ -20127,33 +20127,33 @@
     </row>
     <row r="683" spans="1:5">
       <c r="A683">
-        <v>12238</v>
+        <v>1777</v>
       </c>
       <c r="B683" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C683">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D683">
-        <v>177</v>
+        <v>254.75</v>
       </c>
       <c r="E683" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="684" spans="1:5">
       <c r="A684">
-        <v>12238</v>
+        <v>2608</v>
       </c>
       <c r="B684" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C684">
         <v>1</v>
       </c>
       <c r="D684">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="E684" t="s">
         <v>2715</v>
@@ -20161,33 +20161,33 @@
     </row>
     <row r="685" spans="1:5">
       <c r="A685">
-        <v>75</v>
+        <v>12237</v>
       </c>
       <c r="B685" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C685">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D685">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="E685" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="686" spans="1:5">
       <c r="A686">
-        <v>3674</v>
+        <v>12237</v>
       </c>
       <c r="B686" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C686">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D686">
-        <v>107.5</v>
+        <v>708</v>
       </c>
       <c r="E686" t="s">
         <v>2715</v>
@@ -20195,50 +20195,50 @@
     </row>
     <row r="687" spans="1:5">
       <c r="A687">
-        <v>7708</v>
+        <v>12238</v>
       </c>
       <c r="B687" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C687">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D687">
-        <v>163.25</v>
+        <v>177</v>
       </c>
       <c r="E687" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="688" spans="1:5">
       <c r="A688">
-        <v>6035</v>
+        <v>12238</v>
       </c>
       <c r="B688" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C688">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D688">
-        <v>43.25</v>
+        <v>708</v>
       </c>
       <c r="E688" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="689" spans="1:5">
       <c r="A689">
-        <v>6035</v>
+        <v>75</v>
       </c>
       <c r="B689" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C689">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D689">
-        <v>1038</v>
+        <v>197</v>
       </c>
       <c r="E689" t="s">
         <v>2715</v>
@@ -20246,33 +20246,33 @@
     </row>
     <row r="690" spans="1:5">
       <c r="A690">
-        <v>10150</v>
+        <v>3674</v>
       </c>
       <c r="B690" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C690">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D690">
-        <v>64.75</v>
+        <v>107.5</v>
       </c>
       <c r="E690" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="691" spans="1:5">
       <c r="A691">
-        <v>10150</v>
+        <v>7708</v>
       </c>
       <c r="B691" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C691">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D691">
-        <v>2072</v>
+        <v>162.75</v>
       </c>
       <c r="E691" t="s">
         <v>2715</v>
@@ -20280,33 +20280,33 @@
     </row>
     <row r="692" spans="1:5">
       <c r="A692">
-        <v>11410</v>
+        <v>6035</v>
       </c>
       <c r="B692" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C692">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D692">
-        <v>414</v>
+        <v>43.25</v>
       </c>
       <c r="E692" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="693" spans="1:5">
       <c r="A693">
-        <v>10994</v>
+        <v>6035</v>
       </c>
       <c r="B693" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C693">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D693">
-        <v>526.75</v>
+        <v>1038</v>
       </c>
       <c r="E693" t="s">
         <v>2715</v>
@@ -20314,33 +20314,33 @@
     </row>
     <row r="694" spans="1:5">
       <c r="A694">
-        <v>13254</v>
+        <v>10150</v>
       </c>
       <c r="B694" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C694">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D694">
-        <v>411.75</v>
+        <v>64.75</v>
       </c>
       <c r="E694" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="695" spans="1:5">
       <c r="A695">
-        <v>12535</v>
+        <v>10150</v>
       </c>
       <c r="B695" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C695">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D695">
-        <v>405</v>
+        <v>2072</v>
       </c>
       <c r="E695" t="s">
         <v>2715</v>
@@ -20348,33 +20348,33 @@
     </row>
     <row r="696" spans="1:5">
       <c r="A696">
-        <v>161</v>
+        <v>11410</v>
       </c>
       <c r="B696" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C696">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D696">
-        <v>38.25</v>
+        <v>414</v>
       </c>
       <c r="E696" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="697" spans="1:5">
       <c r="A697">
-        <v>161</v>
+        <v>10994</v>
       </c>
       <c r="B697" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C697">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D697">
-        <v>688.5</v>
+        <v>526.75</v>
       </c>
       <c r="E697" t="s">
         <v>2715</v>
@@ -20382,16 +20382,16 @@
     </row>
     <row r="698" spans="1:5">
       <c r="A698">
-        <v>22566</v>
+        <v>13254</v>
       </c>
       <c r="B698" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C698">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D698">
-        <v>645.75</v>
+        <v>411.75</v>
       </c>
       <c r="E698" t="s">
         <v>2715</v>
@@ -20399,16 +20399,16 @@
     </row>
     <row r="699" spans="1:5">
       <c r="A699">
-        <v>23275</v>
+        <v>12535</v>
       </c>
       <c r="B699" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C699">
         <v>2</v>
       </c>
       <c r="D699">
-        <v>407.25</v>
+        <v>405</v>
       </c>
       <c r="E699" t="s">
         <v>2715</v>
@@ -20416,16 +20416,16 @@
     </row>
     <row r="700" spans="1:5">
       <c r="A700">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="B700" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C700">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D700">
-        <v>21.5</v>
+        <v>38.25</v>
       </c>
       <c r="E700" t="s">
         <v>2714</v>
@@ -20433,16 +20433,16 @@
     </row>
     <row r="701" spans="1:5">
       <c r="A701">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="B701" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C701">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D701">
-        <v>129</v>
+        <v>688.5</v>
       </c>
       <c r="E701" t="s">
         <v>2715</v>
@@ -20450,16 +20450,16 @@
     </row>
     <row r="702" spans="1:5">
       <c r="A702">
-        <v>71</v>
+        <v>22566</v>
       </c>
       <c r="B702" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C702">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D702">
-        <v>258</v>
+        <v>645.75</v>
       </c>
       <c r="E702" t="s">
         <v>2715</v>
@@ -20467,16 +20467,16 @@
     </row>
     <row r="703" spans="1:5">
       <c r="A703">
-        <v>71</v>
+        <v>23275</v>
       </c>
       <c r="B703" t="s">
         <v>496</v>
       </c>
       <c r="C703">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D703">
-        <v>516</v>
+        <v>407.25</v>
       </c>
       <c r="E703" t="s">
         <v>2715</v>
@@ -20484,33 +20484,33 @@
     </row>
     <row r="704" spans="1:5">
       <c r="A704">
-        <v>2668</v>
+        <v>71</v>
       </c>
       <c r="B704" t="s">
         <v>497</v>
       </c>
       <c r="C704">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D704">
-        <v>504.75</v>
+        <v>21.5</v>
       </c>
       <c r="E704" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="705" spans="1:5">
       <c r="A705">
-        <v>949</v>
+        <v>71</v>
       </c>
       <c r="B705" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C705">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D705">
-        <v>403.5</v>
+        <v>129</v>
       </c>
       <c r="E705" t="s">
         <v>2715</v>
@@ -20518,33 +20518,33 @@
     </row>
     <row r="706" spans="1:5">
       <c r="A706">
-        <v>8254</v>
+        <v>71</v>
       </c>
       <c r="B706" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C706">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D706">
-        <v>334.25</v>
+        <v>258</v>
       </c>
       <c r="E706" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="707" spans="1:5">
       <c r="A707">
-        <v>8254</v>
+        <v>71</v>
       </c>
       <c r="B707" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C707">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D707">
-        <v>1002.75</v>
+        <v>516</v>
       </c>
       <c r="E707" t="s">
         <v>2715</v>
@@ -20552,16 +20552,16 @@
     </row>
     <row r="708" spans="1:5">
       <c r="A708">
-        <v>7191</v>
+        <v>2668</v>
       </c>
       <c r="B708" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C708">
         <v>1</v>
       </c>
       <c r="D708">
-        <v>334</v>
+        <v>504.75</v>
       </c>
       <c r="E708" t="s">
         <v>2715</v>
@@ -20569,16 +20569,16 @@
     </row>
     <row r="709" spans="1:5">
       <c r="A709">
-        <v>9182</v>
+        <v>949</v>
       </c>
       <c r="B709" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C709">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D709">
-        <v>167.25</v>
+        <v>403.5</v>
       </c>
       <c r="E709" t="s">
         <v>2715</v>
@@ -20586,50 +20586,50 @@
     </row>
     <row r="710" spans="1:5">
       <c r="A710">
-        <v>418</v>
+        <v>8254</v>
       </c>
       <c r="B710" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C710">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D710">
-        <v>202.75</v>
+        <v>334.25</v>
       </c>
       <c r="E710" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="711" spans="1:5">
       <c r="A711">
-        <v>192</v>
+        <v>8254</v>
       </c>
       <c r="B711" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C711">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D711">
-        <v>20</v>
+        <v>1002.75</v>
       </c>
       <c r="E711" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="712" spans="1:5">
       <c r="A712">
-        <v>192</v>
+        <v>7191</v>
       </c>
       <c r="B712" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C712">
         <v>1</v>
       </c>
       <c r="D712">
-        <v>960</v>
+        <v>334</v>
       </c>
       <c r="E712" t="s">
         <v>2715</v>
@@ -20637,16 +20637,16 @@
     </row>
     <row r="713" spans="1:5">
       <c r="A713">
-        <v>1619</v>
+        <v>9182</v>
       </c>
       <c r="B713" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C713">
         <v>1</v>
       </c>
       <c r="D713">
-        <v>387</v>
+        <v>167.25</v>
       </c>
       <c r="E713" t="s">
         <v>2715</v>
@@ -20654,16 +20654,16 @@
     </row>
     <row r="714" spans="1:5">
       <c r="A714">
-        <v>1620</v>
+        <v>418</v>
       </c>
       <c r="B714" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C714">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D714">
-        <v>387</v>
+        <v>202.75</v>
       </c>
       <c r="E714" t="s">
         <v>2715</v>
@@ -20671,50 +20671,50 @@
     </row>
     <row r="715" spans="1:5">
       <c r="A715">
-        <v>8651</v>
+        <v>192</v>
       </c>
       <c r="B715" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C715">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D715">
-        <v>125.5</v>
+        <v>20</v>
       </c>
       <c r="E715" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="716" spans="1:5">
       <c r="A716">
-        <v>5343</v>
+        <v>192</v>
       </c>
       <c r="B716" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C716">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D716">
-        <v>53.75</v>
+        <v>960</v>
       </c>
       <c r="E716" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="717" spans="1:5">
       <c r="A717">
-        <v>5343</v>
+        <v>1619</v>
       </c>
       <c r="B717" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C717">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D717">
-        <v>161.25</v>
+        <v>387</v>
       </c>
       <c r="E717" t="s">
         <v>2715</v>
@@ -20722,16 +20722,16 @@
     </row>
     <row r="718" spans="1:5">
       <c r="A718">
-        <v>5343</v>
+        <v>1620</v>
       </c>
       <c r="B718" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C718">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D718">
-        <v>322.5</v>
+        <v>387</v>
       </c>
       <c r="E718" t="s">
         <v>2715</v>
@@ -20739,16 +20739,16 @@
     </row>
     <row r="719" spans="1:5">
       <c r="A719">
-        <v>5343</v>
+        <v>8651</v>
       </c>
       <c r="B719" t="s">
         <v>507</v>
       </c>
       <c r="C719">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D719">
-        <v>645</v>
+        <v>125.25</v>
       </c>
       <c r="E719" t="s">
         <v>2715</v>
@@ -20756,50 +20756,50 @@
     </row>
     <row r="720" spans="1:5">
       <c r="A720">
-        <v>3387</v>
+        <v>5343</v>
       </c>
       <c r="B720" t="s">
         <v>508</v>
       </c>
       <c r="C720">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D720">
-        <v>212.5</v>
+        <v>53.75</v>
       </c>
       <c r="E720" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="721" spans="1:5">
       <c r="A721">
-        <v>2836</v>
+        <v>5343</v>
       </c>
       <c r="B721" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C721">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D721">
-        <v>93</v>
+        <v>161.25</v>
       </c>
       <c r="E721" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="722" spans="1:5">
       <c r="A722">
-        <v>2836</v>
+        <v>5343</v>
       </c>
       <c r="B722" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C722">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="D722">
-        <v>930</v>
+        <v>322.5</v>
       </c>
       <c r="E722" t="s">
         <v>2715</v>
@@ -20807,16 +20807,16 @@
     </row>
     <row r="723" spans="1:5">
       <c r="A723">
-        <v>2836</v>
+        <v>5343</v>
       </c>
       <c r="B723" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C723">
         <v>1</v>
       </c>
       <c r="D723">
-        <v>5580</v>
+        <v>645</v>
       </c>
       <c r="E723" t="s">
         <v>2715</v>
@@ -20824,16 +20824,16 @@
     </row>
     <row r="724" spans="1:5">
       <c r="A724">
-        <v>3012</v>
+        <v>3387</v>
       </c>
       <c r="B724" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C724">
         <v>1</v>
       </c>
       <c r="D724">
-        <v>617</v>
+        <v>212.5</v>
       </c>
       <c r="E724" t="s">
         <v>2715</v>
@@ -20841,16 +20841,16 @@
     </row>
     <row r="725" spans="1:5">
       <c r="A725">
-        <v>23335</v>
+        <v>2836</v>
       </c>
       <c r="B725" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C725">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D725">
-        <v>77.25</v>
+        <v>93</v>
       </c>
       <c r="E725" t="s">
         <v>2714</v>
@@ -20858,16 +20858,16 @@
     </row>
     <row r="726" spans="1:5">
       <c r="A726">
-        <v>23335</v>
+        <v>2836</v>
       </c>
       <c r="B726" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C726">
-        <v>1</v>
+        <v>138</v>
       </c>
       <c r="D726">
-        <v>618</v>
+        <v>930</v>
       </c>
       <c r="E726" t="s">
         <v>2715</v>
@@ -20875,16 +20875,16 @@
     </row>
     <row r="727" spans="1:5">
       <c r="A727">
-        <v>9609</v>
+        <v>2836</v>
       </c>
       <c r="B727" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C727">
         <v>1</v>
       </c>
       <c r="D727">
-        <v>922.5</v>
+        <v>5580</v>
       </c>
       <c r="E727" t="s">
         <v>2715</v>
@@ -20892,10 +20892,10 @@
     </row>
     <row r="728" spans="1:5">
       <c r="A728">
-        <v>9459</v>
+        <v>3012</v>
       </c>
       <c r="B728" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C728">
         <v>1</v>
@@ -20909,33 +20909,33 @@
     </row>
     <row r="729" spans="1:5">
       <c r="A729">
-        <v>2194</v>
+        <v>23335</v>
       </c>
       <c r="B729" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C729">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D729">
-        <v>261.25</v>
+        <v>77.25</v>
       </c>
       <c r="E729" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="730" spans="1:5">
       <c r="A730">
-        <v>11181</v>
+        <v>23335</v>
       </c>
       <c r="B730" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C730">
         <v>1</v>
       </c>
       <c r="D730">
-        <v>77</v>
+        <v>618</v>
       </c>
       <c r="E730" t="s">
         <v>2715</v>
@@ -20943,33 +20943,33 @@
     </row>
     <row r="731" spans="1:5">
       <c r="A731">
-        <v>1601</v>
+        <v>9609</v>
       </c>
       <c r="B731" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C731">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="D731">
-        <v>180.5</v>
+        <v>922.5</v>
       </c>
       <c r="E731" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="732" spans="1:5">
       <c r="A732">
-        <v>1601</v>
+        <v>9459</v>
       </c>
       <c r="B732" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C732">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D732">
-        <v>902.5</v>
+        <v>617</v>
       </c>
       <c r="E732" t="s">
         <v>2715</v>
@@ -20977,16 +20977,16 @@
     </row>
     <row r="733" spans="1:5">
       <c r="A733">
-        <v>1601</v>
+        <v>2194</v>
       </c>
       <c r="B733" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C733">
         <v>1</v>
       </c>
       <c r="D733">
-        <v>9025</v>
+        <v>261.25</v>
       </c>
       <c r="E733" t="s">
         <v>2715</v>
@@ -20994,16 +20994,16 @@
     </row>
     <row r="734" spans="1:5">
       <c r="A734">
-        <v>1576</v>
+        <v>11181</v>
       </c>
       <c r="B734" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C734">
         <v>1</v>
       </c>
       <c r="D734">
-        <v>603.25</v>
+        <v>77</v>
       </c>
       <c r="E734" t="s">
         <v>2715</v>
@@ -21011,16 +21011,16 @@
     </row>
     <row r="735" spans="1:5">
       <c r="A735">
-        <v>6628</v>
+        <v>1601</v>
       </c>
       <c r="B735" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C735">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="D735">
-        <v>296.75</v>
+        <v>180.5</v>
       </c>
       <c r="E735" t="s">
         <v>2714</v>
@@ -21028,16 +21028,16 @@
     </row>
     <row r="736" spans="1:5">
       <c r="A736">
-        <v>6628</v>
+        <v>1601</v>
       </c>
       <c r="B736" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C736">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D736">
-        <v>1780.5</v>
+        <v>902.5</v>
       </c>
       <c r="E736" t="s">
         <v>2715</v>
@@ -21045,16 +21045,16 @@
     </row>
     <row r="737" spans="1:5">
       <c r="A737">
-        <v>11767</v>
+        <v>1601</v>
       </c>
       <c r="B737" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C737">
         <v>1</v>
       </c>
       <c r="D737">
-        <v>178.5</v>
+        <v>9025</v>
       </c>
       <c r="E737" t="s">
         <v>2715</v>
@@ -21062,16 +21062,16 @@
     </row>
     <row r="738" spans="1:5">
       <c r="A738">
-        <v>6728</v>
+        <v>1576</v>
       </c>
       <c r="B738" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C738">
         <v>1</v>
       </c>
       <c r="D738">
-        <v>298.25</v>
+        <v>603.25</v>
       </c>
       <c r="E738" t="s">
         <v>2715</v>
@@ -21079,33 +21079,33 @@
     </row>
     <row r="739" spans="1:5">
       <c r="A739">
-        <v>11671</v>
+        <v>6628</v>
       </c>
       <c r="B739" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C739">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D739">
-        <v>94</v>
+        <v>296.75</v>
       </c>
       <c r="E739" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="740" spans="1:5">
       <c r="A740">
-        <v>12661</v>
+        <v>6628</v>
       </c>
       <c r="B740" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C740">
         <v>1</v>
       </c>
       <c r="D740">
-        <v>354.75</v>
+        <v>1780.5</v>
       </c>
       <c r="E740" t="s">
         <v>2715</v>
@@ -21113,16 +21113,16 @@
     </row>
     <row r="741" spans="1:5">
       <c r="A741">
-        <v>7629</v>
+        <v>11767</v>
       </c>
       <c r="B741" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C741">
         <v>1</v>
       </c>
       <c r="D741">
-        <v>356</v>
+        <v>178</v>
       </c>
       <c r="E741" t="s">
         <v>2715</v>
@@ -21130,16 +21130,16 @@
     </row>
     <row r="742" spans="1:5">
       <c r="A742">
-        <v>7705</v>
+        <v>6728</v>
       </c>
       <c r="B742" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C742">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D742">
-        <v>163.25</v>
+        <v>298.25</v>
       </c>
       <c r="E742" t="s">
         <v>2715</v>
@@ -21147,16 +21147,16 @@
     </row>
     <row r="743" spans="1:5">
       <c r="A743">
-        <v>7706</v>
+        <v>11671</v>
       </c>
       <c r="B743" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C743">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D743">
-        <v>163.25</v>
+        <v>94</v>
       </c>
       <c r="E743" t="s">
         <v>2715</v>
@@ -21164,33 +21164,33 @@
     </row>
     <row r="744" spans="1:5">
       <c r="A744">
-        <v>590</v>
+        <v>12661</v>
       </c>
       <c r="B744" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C744">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D744">
-        <v>49.25</v>
+        <v>354.75</v>
       </c>
       <c r="E744" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="745" spans="1:5">
       <c r="A745">
-        <v>590</v>
+        <v>7629</v>
       </c>
       <c r="B745" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C745">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D745">
-        <v>295.5</v>
+        <v>356.5</v>
       </c>
       <c r="E745" t="s">
         <v>2715</v>
@@ -21198,16 +21198,16 @@
     </row>
     <row r="746" spans="1:5">
       <c r="A746">
-        <v>590</v>
+        <v>7705</v>
       </c>
       <c r="B746" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C746">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D746">
-        <v>591</v>
+        <v>162.75</v>
       </c>
       <c r="E746" t="s">
         <v>2715</v>
@@ -21215,16 +21215,16 @@
     </row>
     <row r="747" spans="1:5">
       <c r="A747">
-        <v>590</v>
+        <v>7706</v>
       </c>
       <c r="B747" t="s">
         <v>526</v>
       </c>
       <c r="C747">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D747">
-        <v>1182</v>
+        <v>162.75</v>
       </c>
       <c r="E747" t="s">
         <v>2715</v>
@@ -21232,33 +21232,33 @@
     </row>
     <row r="748" spans="1:5">
       <c r="A748">
-        <v>3278</v>
+        <v>590</v>
       </c>
       <c r="B748" t="s">
         <v>527</v>
       </c>
       <c r="C748">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D748">
-        <v>290.5</v>
+        <v>49.25</v>
       </c>
       <c r="E748" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="749" spans="1:5">
       <c r="A749">
-        <v>22972</v>
+        <v>590</v>
       </c>
       <c r="B749" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C749">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D749">
-        <v>575.25</v>
+        <v>295.5</v>
       </c>
       <c r="E749" t="s">
         <v>2715</v>
@@ -21266,16 +21266,16 @@
     </row>
     <row r="750" spans="1:5">
       <c r="A750">
-        <v>21798</v>
+        <v>590</v>
       </c>
       <c r="B750" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C750">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D750">
-        <v>209.5</v>
+        <v>591</v>
       </c>
       <c r="E750" t="s">
         <v>2715</v>
@@ -21283,16 +21283,16 @@
     </row>
     <row r="751" spans="1:5">
       <c r="A751">
-        <v>7942</v>
+        <v>590</v>
       </c>
       <c r="B751" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C751">
         <v>1</v>
       </c>
       <c r="D751">
-        <v>844.25</v>
+        <v>1182</v>
       </c>
       <c r="E751" t="s">
         <v>2715</v>
@@ -21300,16 +21300,16 @@
     </row>
     <row r="752" spans="1:5">
       <c r="A752">
-        <v>2234</v>
+        <v>3278</v>
       </c>
       <c r="B752" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C752">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D752">
-        <v>846.25</v>
+        <v>290.5</v>
       </c>
       <c r="E752" t="s">
         <v>2715</v>
@@ -21317,16 +21317,16 @@
     </row>
     <row r="753" spans="1:5">
       <c r="A753">
-        <v>11936</v>
+        <v>22972</v>
       </c>
       <c r="B753" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C753">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D753">
-        <v>209</v>
+        <v>575.25</v>
       </c>
       <c r="E753" t="s">
         <v>2715</v>
@@ -21334,33 +21334,33 @@
     </row>
     <row r="754" spans="1:5">
       <c r="A754">
-        <v>98</v>
+        <v>21798</v>
       </c>
       <c r="B754" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C754">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D754">
-        <v>34.75</v>
+        <v>209.5</v>
       </c>
       <c r="E754" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="755" spans="1:5">
       <c r="A755">
-        <v>98</v>
+        <v>7942</v>
       </c>
       <c r="B755" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C755">
         <v>1</v>
       </c>
       <c r="D755">
-        <v>1668</v>
+        <v>844.25</v>
       </c>
       <c r="E755" t="s">
         <v>2715</v>
@@ -21368,16 +21368,16 @@
     </row>
     <row r="756" spans="1:5">
       <c r="A756">
-        <v>10936</v>
+        <v>2234</v>
       </c>
       <c r="B756" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C756">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D756">
-        <v>209</v>
+        <v>846.75</v>
       </c>
       <c r="E756" t="s">
         <v>2715</v>
@@ -21385,16 +21385,16 @@
     </row>
     <row r="757" spans="1:5">
       <c r="A757">
-        <v>8674</v>
+        <v>11936</v>
       </c>
       <c r="B757" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C757">
         <v>2</v>
       </c>
       <c r="D757">
-        <v>99.5</v>
+        <v>209</v>
       </c>
       <c r="E757" t="s">
         <v>2715</v>
@@ -21402,50 +21402,50 @@
     </row>
     <row r="758" spans="1:5">
       <c r="A758">
-        <v>12505</v>
+        <v>98</v>
       </c>
       <c r="B758" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C758">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D758">
-        <v>416</v>
+        <v>34.75</v>
       </c>
       <c r="E758" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="759" spans="1:5">
       <c r="A759">
-        <v>11891</v>
+        <v>98</v>
       </c>
       <c r="B759" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C759">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D759">
-        <v>68.25</v>
+        <v>1668</v>
       </c>
       <c r="E759" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="760" spans="1:5">
       <c r="A760">
-        <v>11891</v>
+        <v>10936</v>
       </c>
       <c r="B760" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C760">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D760">
-        <v>819</v>
+        <v>209</v>
       </c>
       <c r="E760" t="s">
         <v>2715</v>
@@ -21453,16 +21453,16 @@
     </row>
     <row r="761" spans="1:5">
       <c r="A761">
-        <v>12526</v>
+        <v>8674</v>
       </c>
       <c r="B761" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C761">
         <v>2</v>
       </c>
       <c r="D761">
-        <v>103.5</v>
+        <v>99.75</v>
       </c>
       <c r="E761" t="s">
         <v>2715</v>
@@ -21470,50 +21470,50 @@
     </row>
     <row r="762" spans="1:5">
       <c r="A762">
-        <v>3430</v>
+        <v>12505</v>
       </c>
       <c r="B762" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C762">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D762">
-        <v>34.75</v>
+        <v>416</v>
       </c>
       <c r="E762" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="763" spans="1:5">
       <c r="A763">
-        <v>3430</v>
+        <v>11891</v>
       </c>
       <c r="B763" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C763">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D763">
-        <v>417</v>
+        <v>68.25</v>
       </c>
       <c r="E763" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="764" spans="1:5">
       <c r="A764">
-        <v>3430</v>
+        <v>11891</v>
       </c>
       <c r="B764" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C764">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D764">
-        <v>834</v>
+        <v>819</v>
       </c>
       <c r="E764" t="s">
         <v>2715</v>
@@ -21521,16 +21521,16 @@
     </row>
     <row r="765" spans="1:5">
       <c r="A765">
-        <v>3430</v>
+        <v>12526</v>
       </c>
       <c r="B765" t="s">
         <v>539</v>
       </c>
       <c r="C765">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D765">
-        <v>1668</v>
+        <v>103.5</v>
       </c>
       <c r="E765" t="s">
         <v>2715</v>
@@ -21538,50 +21538,50 @@
     </row>
     <row r="766" spans="1:5">
       <c r="A766">
-        <v>3338</v>
+        <v>3430</v>
       </c>
       <c r="B766" t="s">
         <v>540</v>
       </c>
       <c r="C766">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D766">
-        <v>274.25</v>
+        <v>34.75</v>
       </c>
       <c r="E766" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="767" spans="1:5">
       <c r="A767">
-        <v>12917</v>
+        <v>3430</v>
       </c>
       <c r="B767" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C767">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D767">
-        <v>137.5</v>
+        <v>417</v>
       </c>
       <c r="E767" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="768" spans="1:5">
       <c r="A768">
-        <v>12917</v>
+        <v>3430</v>
       </c>
       <c r="B768" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C768">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D768">
-        <v>825</v>
+        <v>834</v>
       </c>
       <c r="E768" t="s">
         <v>2715</v>
@@ -21589,33 +21589,33 @@
     </row>
     <row r="769" spans="1:5">
       <c r="A769">
-        <v>5341</v>
+        <v>3430</v>
       </c>
       <c r="B769" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C769">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D769">
-        <v>28</v>
+        <v>1668</v>
       </c>
       <c r="E769" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="770" spans="1:5">
       <c r="A770">
-        <v>5341</v>
+        <v>3338</v>
       </c>
       <c r="B770" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C770">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D770">
-        <v>84</v>
+        <v>274.25</v>
       </c>
       <c r="E770" t="s">
         <v>2715</v>
@@ -21623,24 +21623,24 @@
     </row>
     <row r="771" spans="1:5">
       <c r="A771">
-        <v>5341</v>
+        <v>12917</v>
       </c>
       <c r="B771" t="s">
         <v>542</v>
       </c>
       <c r="C771">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D771">
-        <v>168</v>
+        <v>137.5</v>
       </c>
       <c r="E771" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="772" spans="1:5">
       <c r="A772">
-        <v>5341</v>
+        <v>12917</v>
       </c>
       <c r="B772" t="s">
         <v>542</v>
@@ -21649,7 +21649,7 @@
         <v>1</v>
       </c>
       <c r="D772">
-        <v>336</v>
+        <v>825</v>
       </c>
       <c r="E772" t="s">
         <v>2715</v>
@@ -21657,16 +21657,16 @@
     </row>
     <row r="773" spans="1:5">
       <c r="A773">
-        <v>2859</v>
+        <v>5341</v>
       </c>
       <c r="B773" t="s">
         <v>543</v>
       </c>
       <c r="C773">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D773">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E773" t="s">
         <v>2714</v>
@@ -21674,7 +21674,7 @@
     </row>
     <row r="774" spans="1:5">
       <c r="A774">
-        <v>2859</v>
+        <v>5341</v>
       </c>
       <c r="B774" t="s">
         <v>543</v>
@@ -21683,7 +21683,7 @@
         <v>15</v>
       </c>
       <c r="D774">
-        <v>420</v>
+        <v>84</v>
       </c>
       <c r="E774" t="s">
         <v>2715</v>
@@ -21691,7 +21691,7 @@
     </row>
     <row r="775" spans="1:5">
       <c r="A775">
-        <v>2859</v>
+        <v>5341</v>
       </c>
       <c r="B775" t="s">
         <v>543</v>
@@ -21700,7 +21700,7 @@
         <v>16</v>
       </c>
       <c r="D775">
-        <v>840</v>
+        <v>168</v>
       </c>
       <c r="E775" t="s">
         <v>2715</v>
@@ -21708,7 +21708,7 @@
     </row>
     <row r="776" spans="1:5">
       <c r="A776">
-        <v>2859</v>
+        <v>5341</v>
       </c>
       <c r="B776" t="s">
         <v>543</v>
@@ -21717,7 +21717,7 @@
         <v>1</v>
       </c>
       <c r="D776">
-        <v>1680</v>
+        <v>336</v>
       </c>
       <c r="E776" t="s">
         <v>2715</v>
@@ -21725,16 +21725,16 @@
     </row>
     <row r="777" spans="1:5">
       <c r="A777">
-        <v>3059</v>
+        <v>2859</v>
       </c>
       <c r="B777" t="s">
         <v>544</v>
       </c>
       <c r="C777">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D777">
-        <v>137.75</v>
+        <v>35</v>
       </c>
       <c r="E777" t="s">
         <v>2714</v>
@@ -21742,16 +21742,16 @@
     </row>
     <row r="778" spans="1:5">
       <c r="A778">
-        <v>3059</v>
+        <v>2859</v>
       </c>
       <c r="B778" t="s">
         <v>544</v>
       </c>
       <c r="C778">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D778">
-        <v>1653</v>
+        <v>420</v>
       </c>
       <c r="E778" t="s">
         <v>2715</v>
@@ -21759,33 +21759,33 @@
     </row>
     <row r="779" spans="1:5">
       <c r="A779">
-        <v>4076</v>
+        <v>2859</v>
       </c>
       <c r="B779" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C779">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D779">
-        <v>137.75</v>
+        <v>840</v>
       </c>
       <c r="E779" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="780" spans="1:5">
       <c r="A780">
-        <v>4076</v>
+        <v>2859</v>
       </c>
       <c r="B780" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C780">
         <v>1</v>
       </c>
       <c r="D780">
-        <v>1653</v>
+        <v>1680</v>
       </c>
       <c r="E780" t="s">
         <v>2715</v>
@@ -21793,16 +21793,16 @@
     </row>
     <row r="781" spans="1:5">
       <c r="A781">
-        <v>10825</v>
+        <v>3059</v>
       </c>
       <c r="B781" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C781">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D781">
-        <v>45.5</v>
+        <v>137.75</v>
       </c>
       <c r="E781" t="s">
         <v>2714</v>
@@ -21810,16 +21810,16 @@
     </row>
     <row r="782" spans="1:5">
       <c r="A782">
-        <v>10825</v>
+        <v>3059</v>
       </c>
       <c r="B782" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C782">
         <v>1</v>
       </c>
       <c r="D782">
-        <v>1638</v>
+        <v>1653</v>
       </c>
       <c r="E782" t="s">
         <v>2715</v>
@@ -21827,33 +21827,33 @@
     </row>
     <row r="783" spans="1:5">
       <c r="A783">
-        <v>1490</v>
+        <v>4076</v>
       </c>
       <c r="B783" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C783">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D783">
-        <v>565</v>
+        <v>137.75</v>
       </c>
       <c r="E783" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="784" spans="1:5">
       <c r="A784">
-        <v>22573</v>
+        <v>4076</v>
       </c>
       <c r="B784" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C784">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D784">
-        <v>407.25</v>
+        <v>1653</v>
       </c>
       <c r="E784" t="s">
         <v>2715</v>
@@ -21861,16 +21861,16 @@
     </row>
     <row r="785" spans="1:5">
       <c r="A785">
-        <v>3723</v>
+        <v>10825</v>
       </c>
       <c r="B785" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C785">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D785">
-        <v>161.5</v>
+        <v>45.5</v>
       </c>
       <c r="E785" t="s">
         <v>2714</v>
@@ -21878,16 +21878,16 @@
     </row>
     <row r="786" spans="1:5">
       <c r="A786">
-        <v>3723</v>
+        <v>10825</v>
       </c>
       <c r="B786" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C786">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D786">
-        <v>807.5</v>
+        <v>1638</v>
       </c>
       <c r="E786" t="s">
         <v>2715</v>
@@ -21895,16 +21895,16 @@
     </row>
     <row r="787" spans="1:5">
       <c r="A787">
-        <v>1055</v>
+        <v>1490</v>
       </c>
       <c r="B787" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C787">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D787">
-        <v>800.5</v>
+        <v>565</v>
       </c>
       <c r="E787" t="s">
         <v>2715</v>
@@ -21912,67 +21912,67 @@
     </row>
     <row r="788" spans="1:5">
       <c r="A788">
-        <v>9960</v>
+        <v>22573</v>
       </c>
       <c r="B788" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C788">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D788">
-        <v>399.25</v>
+        <v>407.25</v>
       </c>
       <c r="E788" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="789" spans="1:5">
       <c r="A789">
-        <v>9960</v>
+        <v>3723</v>
       </c>
       <c r="B789" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C789">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D789">
-        <v>798.5</v>
+        <v>161.5</v>
       </c>
       <c r="E789" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="790" spans="1:5">
       <c r="A790">
-        <v>3456</v>
+        <v>3723</v>
       </c>
       <c r="B790" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C790">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D790">
-        <v>133.25</v>
+        <v>807.5</v>
       </c>
       <c r="E790" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="791" spans="1:5">
       <c r="A791">
-        <v>3456</v>
+        <v>1055</v>
       </c>
       <c r="B791" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C791">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D791">
-        <v>1599</v>
+        <v>798.25</v>
       </c>
       <c r="E791" t="s">
         <v>2715</v>
@@ -21980,16 +21980,16 @@
     </row>
     <row r="792" spans="1:5">
       <c r="A792">
-        <v>6966</v>
+        <v>9960</v>
       </c>
       <c r="B792" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C792">
         <v>3</v>
       </c>
       <c r="D792">
-        <v>100.25</v>
+        <v>399.25</v>
       </c>
       <c r="E792" t="s">
         <v>2714</v>
@@ -21997,16 +21997,16 @@
     </row>
     <row r="793" spans="1:5">
       <c r="A793">
-        <v>6966</v>
+        <v>9960</v>
       </c>
       <c r="B793" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C793">
         <v>1</v>
       </c>
       <c r="D793">
-        <v>1604</v>
+        <v>798.5</v>
       </c>
       <c r="E793" t="s">
         <v>2715</v>
@@ -22014,67 +22014,67 @@
     </row>
     <row r="794" spans="1:5">
       <c r="A794">
-        <v>13280</v>
+        <v>3456</v>
       </c>
       <c r="B794" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C794">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D794">
-        <v>89.25</v>
+        <v>133.25</v>
       </c>
       <c r="E794" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="795" spans="1:5">
       <c r="A795">
-        <v>12059</v>
+        <v>3456</v>
       </c>
       <c r="B795" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C795">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D795">
-        <v>99</v>
+        <v>1599</v>
       </c>
       <c r="E795" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="796" spans="1:5">
       <c r="A796">
-        <v>12059</v>
+        <v>6966</v>
       </c>
       <c r="B796" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C796">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D796">
-        <v>1584</v>
+        <v>100.25</v>
       </c>
       <c r="E796" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="797" spans="1:5">
       <c r="A797">
-        <v>11967</v>
+        <v>6966</v>
       </c>
       <c r="B797" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C797">
         <v>1</v>
       </c>
       <c r="D797">
-        <v>224.25</v>
+        <v>1604</v>
       </c>
       <c r="E797" t="s">
         <v>2715</v>
@@ -22082,16 +22082,16 @@
     </row>
     <row r="798" spans="1:5">
       <c r="A798">
-        <v>11489</v>
+        <v>13280</v>
       </c>
       <c r="B798" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C798">
         <v>1</v>
       </c>
       <c r="D798">
-        <v>265.25</v>
+        <v>89.25</v>
       </c>
       <c r="E798" t="s">
         <v>2715</v>
@@ -22099,33 +22099,33 @@
     </row>
     <row r="799" spans="1:5">
       <c r="A799">
-        <v>13893</v>
+        <v>12059</v>
       </c>
       <c r="B799" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C799">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D799">
-        <v>105.5</v>
+        <v>99</v>
       </c>
       <c r="E799" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="800" spans="1:5">
       <c r="A800">
-        <v>738</v>
+        <v>12059</v>
       </c>
       <c r="B800" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C800">
         <v>1</v>
       </c>
       <c r="D800">
-        <v>783</v>
+        <v>1584</v>
       </c>
       <c r="E800" t="s">
         <v>2715</v>
@@ -22133,33 +22133,33 @@
     </row>
     <row r="801" spans="1:5">
       <c r="A801">
-        <v>4586</v>
+        <v>11967</v>
       </c>
       <c r="B801" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C801">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D801">
-        <v>19.5</v>
+        <v>224.25</v>
       </c>
       <c r="E801" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="802" spans="1:5">
       <c r="A802">
-        <v>4586</v>
+        <v>11489</v>
       </c>
       <c r="B802" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C802">
         <v>1</v>
       </c>
       <c r="D802">
-        <v>780</v>
+        <v>265.25</v>
       </c>
       <c r="E802" t="s">
         <v>2715</v>
@@ -22167,16 +22167,16 @@
     </row>
     <row r="803" spans="1:5">
       <c r="A803">
-        <v>11234</v>
+        <v>13893</v>
       </c>
       <c r="B803" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C803">
         <v>2</v>
       </c>
       <c r="D803">
-        <v>157</v>
+        <v>105.5</v>
       </c>
       <c r="E803" t="s">
         <v>2715</v>
@@ -22184,50 +22184,50 @@
     </row>
     <row r="804" spans="1:5">
       <c r="A804">
-        <v>61</v>
+        <v>738</v>
       </c>
       <c r="B804" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C804">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D804">
-        <v>133.5</v>
+        <v>789.25</v>
       </c>
       <c r="E804" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="805" spans="1:5">
       <c r="A805">
-        <v>61</v>
+        <v>4586</v>
       </c>
       <c r="B805" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C805">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D805">
-        <v>1602</v>
+        <v>19.5</v>
       </c>
       <c r="E805" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="806" spans="1:5">
       <c r="A806">
-        <v>789</v>
+        <v>4586</v>
       </c>
       <c r="B806" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C806">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D806">
-        <v>387.25</v>
+        <v>780</v>
       </c>
       <c r="E806" t="s">
         <v>2715</v>
@@ -22235,16 +22235,16 @@
     </row>
     <row r="807" spans="1:5">
       <c r="A807">
-        <v>3450</v>
+        <v>11234</v>
       </c>
       <c r="B807" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C807">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D807">
-        <v>387.5</v>
+        <v>157</v>
       </c>
       <c r="E807" t="s">
         <v>2715</v>
@@ -22252,33 +22252,33 @@
     </row>
     <row r="808" spans="1:5">
       <c r="A808">
-        <v>2318</v>
+        <v>61</v>
       </c>
       <c r="B808" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C808">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D808">
-        <v>193</v>
+        <v>133.5</v>
       </c>
       <c r="E808" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="809" spans="1:5">
       <c r="A809">
-        <v>12633</v>
+        <v>61</v>
       </c>
       <c r="B809" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C809">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D809">
-        <v>382.75</v>
+        <v>1602</v>
       </c>
       <c r="E809" t="s">
         <v>2715</v>
@@ -22286,33 +22286,33 @@
     </row>
     <row r="810" spans="1:5">
       <c r="A810">
-        <v>11687</v>
+        <v>789</v>
       </c>
       <c r="B810" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C810">
         <v>2</v>
       </c>
       <c r="D810">
-        <v>95.25</v>
+        <v>387.25</v>
       </c>
       <c r="E810" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="811" spans="1:5">
       <c r="A811">
-        <v>11687</v>
+        <v>3450</v>
       </c>
       <c r="B811" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C811">
         <v>1</v>
       </c>
       <c r="D811">
-        <v>762</v>
+        <v>387.5</v>
       </c>
       <c r="E811" t="s">
         <v>2715</v>
@@ -22320,16 +22320,16 @@
     </row>
     <row r="812" spans="1:5">
       <c r="A812">
-        <v>1492</v>
+        <v>2318</v>
       </c>
       <c r="B812" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C812">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D812">
-        <v>772</v>
+        <v>193</v>
       </c>
       <c r="E812" t="s">
         <v>2715</v>
@@ -22337,50 +22337,50 @@
     </row>
     <row r="813" spans="1:5">
       <c r="A813">
-        <v>5340</v>
+        <v>12633</v>
       </c>
       <c r="B813" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C813">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D813">
-        <v>25.5</v>
+        <v>382.75</v>
       </c>
       <c r="E813" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="814" spans="1:5">
       <c r="A814">
-        <v>5340</v>
+        <v>11687</v>
       </c>
       <c r="B814" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C814">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D814">
-        <v>306</v>
+        <v>95.75</v>
       </c>
       <c r="E814" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="815" spans="1:5">
       <c r="A815">
-        <v>5734</v>
+        <v>11687</v>
       </c>
       <c r="B815" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C815">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D815">
-        <v>507</v>
+        <v>766</v>
       </c>
       <c r="E815" t="s">
         <v>2715</v>
@@ -22388,50 +22388,50 @@
     </row>
     <row r="816" spans="1:5">
       <c r="A816">
-        <v>23598</v>
+        <v>1492</v>
       </c>
       <c r="B816" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C816">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D816">
-        <v>128</v>
+        <v>773.5</v>
       </c>
       <c r="E816" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="817" spans="1:5">
       <c r="A817">
-        <v>23598</v>
+        <v>5340</v>
       </c>
       <c r="B817" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C817">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D817">
-        <v>768</v>
+        <v>25.5</v>
       </c>
       <c r="E817" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="818" spans="1:5">
       <c r="A818">
-        <v>24378</v>
+        <v>5340</v>
       </c>
       <c r="B818" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C818">
         <v>1</v>
       </c>
       <c r="D818">
-        <v>151.75</v>
+        <v>306</v>
       </c>
       <c r="E818" t="s">
         <v>2715</v>
@@ -22439,16 +22439,16 @@
     </row>
     <row r="819" spans="1:5">
       <c r="A819">
-        <v>6946</v>
+        <v>5734</v>
       </c>
       <c r="B819" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C819">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D819">
-        <v>504.75</v>
+        <v>507</v>
       </c>
       <c r="E819" t="s">
         <v>2715</v>
@@ -22456,33 +22456,33 @@
     </row>
     <row r="820" spans="1:5">
       <c r="A820">
-        <v>11808</v>
+        <v>23598</v>
       </c>
       <c r="B820" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C820">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D820">
-        <v>59.75</v>
+        <v>128</v>
       </c>
       <c r="E820" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="821" spans="1:5">
       <c r="A821">
-        <v>8660</v>
+        <v>23598</v>
       </c>
       <c r="B821" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C821">
         <v>1</v>
       </c>
       <c r="D821">
-        <v>737.75</v>
+        <v>768</v>
       </c>
       <c r="E821" t="s">
         <v>2715</v>
@@ -22490,16 +22490,16 @@
     </row>
     <row r="822" spans="1:5">
       <c r="A822">
-        <v>8968</v>
+        <v>24378</v>
       </c>
       <c r="B822" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C822">
         <v>1</v>
       </c>
       <c r="D822">
-        <v>737.75</v>
+        <v>151.75</v>
       </c>
       <c r="E822" t="s">
         <v>2715</v>
@@ -22507,16 +22507,16 @@
     </row>
     <row r="823" spans="1:5">
       <c r="A823">
-        <v>45</v>
+        <v>6946</v>
       </c>
       <c r="B823" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C823">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D823">
-        <v>259.5</v>
+        <v>504.75</v>
       </c>
       <c r="E823" t="s">
         <v>2715</v>
@@ -22524,16 +22524,16 @@
     </row>
     <row r="824" spans="1:5">
       <c r="A824">
-        <v>10941</v>
+        <v>11808</v>
       </c>
       <c r="B824" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C824">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D824">
-        <v>209</v>
+        <v>59.75</v>
       </c>
       <c r="E824" t="s">
         <v>2715</v>
@@ -22541,16 +22541,16 @@
     </row>
     <row r="825" spans="1:5">
       <c r="A825">
-        <v>5128</v>
+        <v>8660</v>
       </c>
       <c r="B825" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C825">
         <v>1</v>
       </c>
       <c r="D825">
-        <v>241.75</v>
+        <v>737.75</v>
       </c>
       <c r="E825" t="s">
         <v>2715</v>
@@ -22558,16 +22558,16 @@
     </row>
     <row r="826" spans="1:5">
       <c r="A826">
-        <v>11090</v>
+        <v>8968</v>
       </c>
       <c r="B826" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C826">
         <v>1</v>
       </c>
       <c r="D826">
-        <v>362</v>
+        <v>737.75</v>
       </c>
       <c r="E826" t="s">
         <v>2715</v>
@@ -22575,16 +22575,16 @@
     </row>
     <row r="827" spans="1:5">
       <c r="A827">
-        <v>11793</v>
+        <v>45</v>
       </c>
       <c r="B827" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C827">
         <v>2</v>
       </c>
       <c r="D827">
-        <v>299.5</v>
+        <v>259.5</v>
       </c>
       <c r="E827" t="s">
         <v>2715</v>
@@ -22592,16 +22592,16 @@
     </row>
     <row r="828" spans="1:5">
       <c r="A828">
-        <v>11856</v>
+        <v>10941</v>
       </c>
       <c r="B828" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C828">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D828">
-        <v>287.5</v>
+        <v>209</v>
       </c>
       <c r="E828" t="s">
         <v>2715</v>
@@ -22609,33 +22609,33 @@
     </row>
     <row r="829" spans="1:5">
       <c r="A829">
-        <v>8943</v>
+        <v>5128</v>
       </c>
       <c r="B829" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C829">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D829">
-        <v>75.25</v>
+        <v>241.75</v>
       </c>
       <c r="E829" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="830" spans="1:5">
       <c r="A830">
-        <v>8943</v>
+        <v>11090</v>
       </c>
       <c r="B830" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C830">
         <v>1</v>
       </c>
       <c r="D830">
-        <v>301</v>
+        <v>362</v>
       </c>
       <c r="E830" t="s">
         <v>2715</v>
@@ -22643,33 +22643,33 @@
     </row>
     <row r="831" spans="1:5">
       <c r="A831">
-        <v>10414</v>
+        <v>11793</v>
       </c>
       <c r="B831" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C831">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D831">
-        <v>39.75</v>
+        <v>299.5</v>
       </c>
       <c r="E831" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="832" spans="1:5">
       <c r="A832">
-        <v>10414</v>
+        <v>11856</v>
       </c>
       <c r="B832" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C832">
         <v>1</v>
       </c>
       <c r="D832">
-        <v>477</v>
+        <v>287.5</v>
       </c>
       <c r="E832" t="s">
         <v>2715</v>
@@ -22677,16 +22677,16 @@
     </row>
     <row r="833" spans="1:5">
       <c r="A833">
-        <v>21269</v>
+        <v>8943</v>
       </c>
       <c r="B833" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C833">
         <v>3</v>
       </c>
       <c r="D833">
-        <v>89.25</v>
+        <v>75.25</v>
       </c>
       <c r="E833" t="s">
         <v>2714</v>
@@ -22694,16 +22694,16 @@
     </row>
     <row r="834" spans="1:5">
       <c r="A834">
-        <v>21269</v>
+        <v>8943</v>
       </c>
       <c r="B834" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C834">
         <v>1</v>
       </c>
       <c r="D834">
-        <v>357</v>
+        <v>301</v>
       </c>
       <c r="E834" t="s">
         <v>2715</v>
@@ -22711,16 +22711,16 @@
     </row>
     <row r="835" spans="1:5">
       <c r="A835">
-        <v>66</v>
+        <v>10414</v>
       </c>
       <c r="B835" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C835">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D835">
-        <v>31.25</v>
+        <v>40.25</v>
       </c>
       <c r="E835" t="s">
         <v>2714</v>
@@ -22728,16 +22728,16 @@
     </row>
     <row r="836" spans="1:5">
       <c r="A836">
-        <v>66</v>
+        <v>10414</v>
       </c>
       <c r="B836" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C836">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D836">
-        <v>187.5</v>
+        <v>483</v>
       </c>
       <c r="E836" t="s">
         <v>2715</v>
@@ -22745,24 +22745,24 @@
     </row>
     <row r="837" spans="1:5">
       <c r="A837">
-        <v>66</v>
+        <v>21269</v>
       </c>
       <c r="B837" t="s">
         <v>586</v>
       </c>
       <c r="C837">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D837">
-        <v>375</v>
+        <v>89.25</v>
       </c>
       <c r="E837" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="838" spans="1:5">
       <c r="A838">
-        <v>66</v>
+        <v>21269</v>
       </c>
       <c r="B838" t="s">
         <v>586</v>
@@ -22771,7 +22771,7 @@
         <v>1</v>
       </c>
       <c r="D838">
-        <v>750</v>
+        <v>357</v>
       </c>
       <c r="E838" t="s">
         <v>2715</v>
@@ -22856,7 +22856,7 @@
         <v>1</v>
       </c>
       <c r="D843">
-        <v>476.25</v>
+        <v>476</v>
       </c>
       <c r="E843" t="s">
         <v>2715</v>
@@ -23179,7 +23179,7 @@
         <v>1</v>
       </c>
       <c r="D862">
-        <v>678.5</v>
+        <v>678.25</v>
       </c>
       <c r="E862" t="s">
         <v>2715</v>
@@ -23349,7 +23349,7 @@
         <v>1</v>
       </c>
       <c r="D872">
-        <v>323.75</v>
+        <v>324</v>
       </c>
       <c r="E872" t="s">
         <v>2715</v>
@@ -23655,7 +23655,7 @@
         <v>2</v>
       </c>
       <c r="D890">
-        <v>163.25</v>
+        <v>162.75</v>
       </c>
       <c r="E890" t="s">
         <v>2715</v>
@@ -23995,7 +23995,7 @@
         <v>2</v>
       </c>
       <c r="D910">
-        <v>307.75</v>
+        <v>307.5</v>
       </c>
       <c r="E910" t="s">
         <v>2715</v>
@@ -24097,7 +24097,7 @@
         <v>1</v>
       </c>
       <c r="D916">
-        <v>239.25</v>
+        <v>239</v>
       </c>
       <c r="E916" t="s">
         <v>2715</v>
@@ -24658,7 +24658,7 @@
         <v>10</v>
       </c>
       <c r="D949">
-        <v>24.25</v>
+        <v>24</v>
       </c>
       <c r="E949" t="s">
         <v>2714</v>
@@ -24675,7 +24675,7 @@
         <v>1</v>
       </c>
       <c r="D950">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E950" t="s">
         <v>2715</v>
@@ -24692,7 +24692,7 @@
         <v>10</v>
       </c>
       <c r="D951">
-        <v>24.25</v>
+        <v>24</v>
       </c>
       <c r="E951" t="s">
         <v>2714</v>
@@ -24709,7 +24709,7 @@
         <v>1</v>
       </c>
       <c r="D952">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E952" t="s">
         <v>2715</v>
@@ -25491,7 +25491,7 @@
         <v>2</v>
       </c>
       <c r="D998">
-        <v>260.5</v>
+        <v>261.5</v>
       </c>
       <c r="E998" t="s">
         <v>2715</v>
@@ -26069,7 +26069,7 @@
         <v>3</v>
       </c>
       <c r="D1032">
-        <v>127.75</v>
+        <v>129.5</v>
       </c>
       <c r="E1032" t="s">
         <v>2714</v>
@@ -26086,7 +26086,7 @@
         <v>1</v>
       </c>
       <c r="D1033">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="E1033" t="s">
         <v>2715</v>
@@ -26256,7 +26256,7 @@
         <v>1</v>
       </c>
       <c r="D1043">
-        <v>45.25</v>
+        <v>44.75</v>
       </c>
       <c r="E1043" t="s">
         <v>2715</v>
@@ -26545,7 +26545,7 @@
         <v>1</v>
       </c>
       <c r="D1060">
-        <v>296.5</v>
+        <v>296.25</v>
       </c>
       <c r="E1060" t="s">
         <v>2715</v>
@@ -26783,7 +26783,7 @@
         <v>3</v>
       </c>
       <c r="D1074">
-        <v>144.25</v>
+        <v>144</v>
       </c>
       <c r="E1074" t="s">
         <v>2714</v>
@@ -26800,7 +26800,7 @@
         <v>1</v>
       </c>
       <c r="D1075">
-        <v>865.5</v>
+        <v>864</v>
       </c>
       <c r="E1075" t="s">
         <v>2715</v>
@@ -27021,7 +27021,7 @@
         <v>2</v>
       </c>
       <c r="D1088">
-        <v>163.25</v>
+        <v>162.75</v>
       </c>
       <c r="E1088" t="s">
         <v>2715</v>
@@ -27038,7 +27038,7 @@
         <v>2</v>
       </c>
       <c r="D1089">
-        <v>163.25</v>
+        <v>162.75</v>
       </c>
       <c r="E1089" t="s">
         <v>2715</v>
@@ -27208,7 +27208,7 @@
         <v>2</v>
       </c>
       <c r="D1099">
-        <v>263.75</v>
+        <v>263</v>
       </c>
       <c r="E1099" t="s">
         <v>2715</v>
@@ -27633,7 +27633,7 @@
         <v>2</v>
       </c>
       <c r="D1124">
-        <v>95.25</v>
+        <v>95.75</v>
       </c>
       <c r="E1124" t="s">
         <v>2714</v>
@@ -27650,7 +27650,7 @@
         <v>1</v>
       </c>
       <c r="D1125">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="E1125" t="s">
         <v>2715</v>
@@ -27667,7 +27667,7 @@
         <v>2</v>
       </c>
       <c r="D1126">
-        <v>95.25</v>
+        <v>95.75</v>
       </c>
       <c r="E1126" t="s">
         <v>2714</v>
@@ -27684,7 +27684,7 @@
         <v>1</v>
       </c>
       <c r="D1127">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="E1127" t="s">
         <v>2715</v>
@@ -27718,7 +27718,7 @@
         <v>1</v>
       </c>
       <c r="D1129">
-        <v>45.25</v>
+        <v>44.75</v>
       </c>
       <c r="E1129" t="s">
         <v>2715</v>
@@ -27939,7 +27939,7 @@
         <v>1</v>
       </c>
       <c r="D1142">
-        <v>45.25</v>
+        <v>44.75</v>
       </c>
       <c r="E1142" t="s">
         <v>2715</v>
@@ -28330,7 +28330,7 @@
         <v>10</v>
       </c>
       <c r="D1165">
-        <v>58.25</v>
+        <v>58</v>
       </c>
       <c r="E1165" t="s">
         <v>2714</v>
@@ -28347,7 +28347,7 @@
         <v>1</v>
       </c>
       <c r="D1166">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="E1166" t="s">
         <v>2715</v>
@@ -28993,7 +28993,7 @@
         <v>1</v>
       </c>
       <c r="D1204">
-        <v>45.25</v>
+        <v>44.75</v>
       </c>
       <c r="E1204" t="s">
         <v>2715</v>
@@ -29027,7 +29027,7 @@
         <v>1</v>
       </c>
       <c r="D1206">
-        <v>45.25</v>
+        <v>44.75</v>
       </c>
       <c r="E1206" t="s">
         <v>2715</v>
@@ -29095,7 +29095,7 @@
         <v>1</v>
       </c>
       <c r="D1210">
-        <v>308.5</v>
+        <v>308.25</v>
       </c>
       <c r="E1210" t="s">
         <v>2715</v>
@@ -29112,7 +29112,7 @@
         <v>1</v>
       </c>
       <c r="D1211">
-        <v>308.5</v>
+        <v>308.25</v>
       </c>
       <c r="E1211" t="s">
         <v>2715</v>
@@ -29129,7 +29129,7 @@
         <v>1</v>
       </c>
       <c r="D1212">
-        <v>308.5</v>
+        <v>308.25</v>
       </c>
       <c r="E1212" t="s">
         <v>2715</v>
@@ -29146,7 +29146,7 @@
         <v>1</v>
       </c>
       <c r="D1213">
-        <v>319.75</v>
+        <v>321.25</v>
       </c>
       <c r="E1213" t="s">
         <v>2715</v>
@@ -29367,7 +29367,7 @@
         <v>2</v>
       </c>
       <c r="D1226">
-        <v>99.5</v>
+        <v>99.75</v>
       </c>
       <c r="E1226" t="s">
         <v>2715</v>
@@ -29979,7 +29979,7 @@
         <v>1</v>
       </c>
       <c r="D1262">
-        <v>279</v>
+        <v>279.5</v>
       </c>
       <c r="E1262" t="s">
         <v>2715</v>
@@ -30268,7 +30268,7 @@
         <v>1</v>
       </c>
       <c r="D1279">
-        <v>509.5</v>
+        <v>504.75</v>
       </c>
       <c r="E1279" t="s">
         <v>2715</v>
@@ -30506,7 +30506,7 @@
         <v>1</v>
       </c>
       <c r="D1293">
-        <v>45.25</v>
+        <v>44.75</v>
       </c>
       <c r="E1293" t="s">
         <v>2715</v>
@@ -30523,7 +30523,7 @@
         <v>1</v>
       </c>
       <c r="D1294">
-        <v>45.25</v>
+        <v>44.75</v>
       </c>
       <c r="E1294" t="s">
         <v>2715</v>
@@ -31441,7 +31441,7 @@
         <v>10</v>
       </c>
       <c r="D1348">
-        <v>16.25</v>
+        <v>16</v>
       </c>
       <c r="E1348" t="s">
         <v>2714</v>
@@ -31458,7 +31458,7 @@
         <v>1</v>
       </c>
       <c r="D1349">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E1349" t="s">
         <v>2715</v>
@@ -31475,7 +31475,7 @@
         <v>10</v>
       </c>
       <c r="D1350">
-        <v>16.25</v>
+        <v>16</v>
       </c>
       <c r="E1350" t="s">
         <v>2714</v>
@@ -31492,7 +31492,7 @@
         <v>1</v>
       </c>
       <c r="D1351">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E1351" t="s">
         <v>2715</v>
@@ -31900,7 +31900,7 @@
         <v>1</v>
       </c>
       <c r="D1375">
-        <v>323.75</v>
+        <v>324</v>
       </c>
       <c r="E1375" t="s">
         <v>2715</v>
@@ -32053,7 +32053,7 @@
         <v>2</v>
       </c>
       <c r="D1384">
-        <v>307.75</v>
+        <v>307.5</v>
       </c>
       <c r="E1384" t="s">
         <v>2715</v>
@@ -32121,7 +32121,7 @@
         <v>1</v>
       </c>
       <c r="D1388">
-        <v>310.75</v>
+        <v>311.25</v>
       </c>
       <c r="E1388" t="s">
         <v>2715</v>
@@ -33056,7 +33056,7 @@
         <v>1</v>
       </c>
       <c r="D1443">
-        <v>45.25</v>
+        <v>44.75</v>
       </c>
       <c r="E1443" t="s">
         <v>2715</v>
@@ -33447,7 +33447,7 @@
         <v>2</v>
       </c>
       <c r="D1466">
-        <v>189</v>
+        <v>188.5</v>
       </c>
       <c r="E1466" t="s">
         <v>2715</v>
@@ -33464,7 +33464,7 @@
         <v>1</v>
       </c>
       <c r="D1467">
-        <v>45.25</v>
+        <v>44.75</v>
       </c>
       <c r="E1467" t="s">
         <v>2715</v>
@@ -33719,7 +33719,7 @@
         <v>2</v>
       </c>
       <c r="D1482">
-        <v>148.5</v>
+        <v>151</v>
       </c>
       <c r="E1482" t="s">
         <v>2715</v>
@@ -36677,7 +36677,7 @@
         <v>3</v>
       </c>
       <c r="D1656">
-        <v>49</v>
+        <v>49.25</v>
       </c>
       <c r="E1656" t="s">
         <v>2714</v>
@@ -36694,7 +36694,7 @@
         <v>1</v>
       </c>
       <c r="D1657">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="E1657" t="s">
         <v>2715</v>
@@ -38462,7 +38462,7 @@
         <v>1</v>
       </c>
       <c r="D1761">
-        <v>727</v>
+        <v>726.75</v>
       </c>
       <c r="E1761" t="s">
         <v>2715</v>
@@ -38479,7 +38479,7 @@
         <v>1</v>
       </c>
       <c r="D1762">
-        <v>741</v>
+        <v>740.25</v>
       </c>
       <c r="E1762" t="s">
         <v>2715</v>
@@ -39023,7 +39023,7 @@
         <v>2</v>
       </c>
       <c r="D1794">
-        <v>320.75</v>
+        <v>334.25</v>
       </c>
       <c r="E1794" t="s">
         <v>2715</v>
@@ -39397,7 +39397,7 @@
         <v>1</v>
       </c>
       <c r="D1816">
-        <v>894.4832904637481</v>
+        <v>895.2476994402828</v>
       </c>
       <c r="E1816" t="s">
         <v>2715</v>
@@ -41301,7 +41301,7 @@
         <v>1</v>
       </c>
       <c r="D1928">
-        <v>949.25</v>
+        <v>948.5</v>
       </c>
       <c r="E1928" t="s">
         <v>2715</v>
@@ -41318,7 +41318,7 @@
         <v>1</v>
       </c>
       <c r="D1929">
-        <v>966</v>
+        <v>965.5</v>
       </c>
       <c r="E1929" t="s">
         <v>2715</v>
@@ -42695,7 +42695,7 @@
         <v>1</v>
       </c>
       <c r="D2010">
-        <v>678.5</v>
+        <v>678.25</v>
       </c>
       <c r="E2010" t="s">
         <v>2715</v>
@@ -42848,7 +42848,7 @@
         <v>7</v>
       </c>
       <c r="D2019">
-        <v>81.5</v>
+        <v>82.25</v>
       </c>
       <c r="E2019" t="s">
         <v>2714</v>
@@ -42865,7 +42865,7 @@
         <v>2</v>
       </c>
       <c r="D2020">
-        <v>1630</v>
+        <v>1645</v>
       </c>
       <c r="E2020" t="s">
         <v>2715</v>
@@ -45041,7 +45041,7 @@
         <v>1</v>
       </c>
       <c r="D2148">
-        <v>732.25</v>
+        <v>734.75</v>
       </c>
       <c r="E2148" t="s">
         <v>2715</v>
@@ -48016,7 +48016,7 @@
         <v>2</v>
       </c>
       <c r="D2323">
-        <v>307.5</v>
+        <v>307.25</v>
       </c>
       <c r="E2323" t="s">
         <v>2715</v>
@@ -48849,7 +48849,7 @@
         <v>2</v>
       </c>
       <c r="D2372">
-        <v>146.75</v>
+        <v>154</v>
       </c>
       <c r="E2372" t="s">
         <v>2714</v>
@@ -48866,7 +48866,7 @@
         <v>1</v>
       </c>
       <c r="D2373">
-        <v>1761</v>
+        <v>1848</v>
       </c>
       <c r="E2373" t="s">
         <v>2715</v>
@@ -56516,7 +56516,7 @@
         <v>1</v>
       </c>
       <c r="D2823">
-        <v>511.75</v>
+        <v>507</v>
       </c>
       <c r="E2823" t="s">
         <v>2715</v>
@@ -56567,7 +56567,7 @@
         <v>1</v>
       </c>
       <c r="D2826">
-        <v>503.25</v>
+        <v>493.75</v>
       </c>
       <c r="E2826" t="s">
         <v>2715</v>
@@ -60647,7 +60647,7 @@
         <v>1</v>
       </c>
       <c r="D3066">
-        <v>753.75</v>
+        <v>753.5</v>
       </c>
       <c r="E3066" t="s">
         <v>2715</v>
@@ -60664,7 +60664,7 @@
         <v>1</v>
       </c>
       <c r="D3067">
-        <v>975.25</v>
+        <v>974.75</v>
       </c>
       <c r="E3067" t="s">
         <v>2715</v>
@@ -61565,7 +61565,7 @@
         <v>1</v>
       </c>
       <c r="D3120">
-        <v>188.75</v>
+        <v>189</v>
       </c>
       <c r="E3120" t="s">
         <v>2715</v>
@@ -64030,7 +64030,7 @@
         <v>2</v>
       </c>
       <c r="D3265">
-        <v>307.5</v>
+        <v>307.25</v>
       </c>
       <c r="E3265" t="s">
         <v>2715</v>
@@ -71830,7 +71830,7 @@
         <v>2524</v>
       </c>
       <c r="C3724">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3724">
         <v>23.5</v>
@@ -71847,7 +71847,7 @@
         <v>2524</v>
       </c>
       <c r="C3725">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3725">
         <v>23.5</v>
@@ -71884,7 +71884,7 @@
         <v>25</v>
       </c>
       <c r="D3727">
-        <v>153.5</v>
+        <v>153</v>
       </c>
       <c r="E3727" t="s">
         <v>2714</v>
@@ -71901,7 +71901,7 @@
         <v>29</v>
       </c>
       <c r="D3728">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E3728" t="s">
         <v>2715</v>
